--- a/BackTest/2019-10-21 BackTest DVP.xlsx
+++ b/BackTest/2019-10-21 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-24.99999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>13.68</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-24.99999999999989</v>
+      </c>
       <c r="L13" t="n">
         <v>13.66</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L14" t="n">
         <v>13.66</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L15" t="n">
         <v>13.67</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L16" t="n">
         <v>13.68</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L17" t="n">
         <v>13.69</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571421</v>
+      </c>
       <c r="L18" t="n">
         <v>13.71</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-14.28571428571421</v>
+      </c>
       <c r="L19" t="n">
         <v>13.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L20" t="n">
         <v>13.69</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.300000000000002</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L21" t="n">
         <v>13.68</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>42.85714285714278</v>
+      </c>
       <c r="L22" t="n">
         <v>13.71</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.500000000000004</v>
       </c>
       <c r="K23" t="n">
-        <v>6.666666666666746</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L23" t="n">
         <v>13.74000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L25" t="n">
         <v>13.75000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L26" t="n">
         <v>13.76000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L27" t="n">
         <v>13.78000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L28" t="n">
         <v>13.79000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.50000000000001</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L29" t="n">
         <v>13.78000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.200000000000008</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L30" t="n">
         <v>13.79000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.200000000000008</v>
       </c>
       <c r="K31" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L31" t="n">
         <v>13.82000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>2.200000000000008</v>
       </c>
       <c r="K32" t="n">
-        <v>28.57142857142844</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L32" t="n">
         <v>13.83000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K33" t="n">
-        <v>19.99999999999995</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L33" t="n">
         <v>13.83000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.400000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>14.28571428571428</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L34" t="n">
         <v>13.85000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>2.400000000000007</v>
       </c>
       <c r="K35" t="n">
-        <v>14.28571428571428</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L35" t="n">
         <v>13.86000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.400000000000007</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>13.87000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K37" t="n">
-        <v>19.99999999999995</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L37" t="n">
         <v>13.88000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>14.28571428571418</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L38" t="n">
         <v>13.89000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>13.92000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>13.93000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K41" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>13.93000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K42" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>13.93000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K43" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>13.94000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K44" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>13.94000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333324</v>
+        <v>60</v>
       </c>
       <c r="L45" t="n">
         <v>13.97000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K46" t="n">
-        <v>38.46153846153844</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L46" t="n">
         <v>14.01000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.200000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>42.85714285714282</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L47" t="n">
         <v>14.06000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>11.11111111111107</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L48" t="n">
         <v>14.07000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>25.00000000000003</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L49" t="n">
         <v>14.08000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K50" t="n">
-        <v>25.00000000000003</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>14.11000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K51" t="n">
-        <v>11.11111111111107</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L51" t="n">
         <v>14.13000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K52" t="n">
-        <v>11.11111111111107</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L52" t="n">
         <v>14.15000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>26.31578947368418</v>
+        <v>24.99999999999997</v>
       </c>
       <c r="L53" t="n">
         <v>14.19000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>4.30000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>26.31578947368418</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L54" t="n">
         <v>14.24000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.500000000000011</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571421</v>
+        <v>-6.666666666666746</v>
       </c>
       <c r="L55" t="n">
         <v>14.24000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>4.700000000000012</v>
       </c>
       <c r="K56" t="n">
-        <v>21.73913043478257</v>
+        <v>-6.666666666666619</v>
       </c>
       <c r="L56" t="n">
         <v>14.25000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>4.700000000000012</v>
       </c>
       <c r="K57" t="n">
-        <v>18.18181818181816</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L57" t="n">
         <v>14.24000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>4.800000000000011</v>
       </c>
       <c r="K58" t="n">
-        <v>13.04347826086957</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L58" t="n">
         <v>14.26000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>4.900000000000011</v>
       </c>
       <c r="K59" t="n">
-        <v>16.66666666666665</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L59" t="n">
         <v>14.29000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>5.200000000000012</v>
       </c>
       <c r="K60" t="n">
-        <v>3.703703703703684</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>14.27000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K61" t="n">
-        <v>14.28571428571427</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L61" t="n">
         <v>14.29000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>5.500000000000014</v>
       </c>
       <c r="K62" t="n">
-        <v>10.34482758620683</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L62" t="n">
         <v>14.30000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>5.600000000000014</v>
       </c>
       <c r="K63" t="n">
-        <v>6.666666666666628</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L63" t="n">
         <v>14.28000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>5.700000000000014</v>
       </c>
       <c r="K64" t="n">
-        <v>3.225806451612884</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L64" t="n">
         <v>14.24000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>5.700000000000014</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.142857142857098</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L65" t="n">
         <v>14.22000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>5.700000000000014</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111111</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L66" t="n">
         <v>14.18000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>5.700000000000014</v>
       </c>
       <c r="K67" t="n">
-        <v>-19.99999999999994</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>14.14000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>5.800000000000013</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.090909090909033</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L68" t="n">
         <v>14.1</v>
@@ -3747,7 +3769,7 @@
         <v>5.900000000000013</v>
       </c>
       <c r="K69" t="n">
-        <v>-13.04347826086948</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L69" t="n">
         <v>14.04000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.900000000000013</v>
       </c>
       <c r="K70" t="n">
-        <v>-23.80952380952375</v>
+        <v>-100</v>
       </c>
       <c r="L70" t="n">
         <v>14.01000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>5.900000000000013</v>
       </c>
       <c r="K71" t="n">
-        <v>-15.78947368421044</v>
+        <v>-100</v>
       </c>
       <c r="L71" t="n">
         <v>13.96000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>6.100000000000012</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.761904761904738</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>13.94000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>6.100000000000012</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>13.93000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K74" t="n">
-        <v>-10.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>13.95000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>6.400000000000011</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.263157894736822</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>13.96000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>6.400000000000011</v>
       </c>
       <c r="K76" t="n">
-        <v>-17.64705882352946</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>13.97000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>6.500000000000011</v>
       </c>
       <c r="K77" t="n">
-        <v>-22.22222222222225</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>13.97000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>6.60000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.11111111111118</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>13.99000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>6.80000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-26.31578947368423</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L79" t="n">
         <v>14.00000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.882352941176458</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>14.02</v>
@@ -4359,7 +4381,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K81" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>14.04</v>
@@ -4410,7 +4432,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>14.04</v>
@@ -4461,7 +4483,7 @@
         <v>7.000000000000009</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L83" t="n">
         <v>14.03</v>
@@ -4512,7 +4534,7 @@
         <v>7.000000000000009</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>14.00000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>13.99000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>13.98000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>7.200000000000008</v>
       </c>
       <c r="K89" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>13.96000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>7.200000000000008</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>13.95000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>13.95000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>13.95000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>7.400000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L93" t="n">
         <v>13.97000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>7.400000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>13.99000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K95" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>14.01000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K96" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>14.03</v>
@@ -5175,7 +5197,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K97" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>14.05</v>
@@ -5226,7 +5248,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K98" t="n">
-        <v>20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>14.09</v>
@@ -5277,7 +5299,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>33.3333333333332</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L99" t="n">
         <v>14.12</v>
@@ -5328,7 +5350,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L100" t="n">
         <v>14.15</v>
@@ -5379,7 +5401,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L101" t="n">
         <v>14.17</v>
@@ -5430,7 +5452,7 @@
         <v>7.80000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>14.18</v>
@@ -5481,7 +5503,7 @@
         <v>7.80000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>14.18</v>
@@ -5532,7 +5554,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K104" t="n">
-        <v>33.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>14.19</v>
@@ -5583,7 +5605,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K105" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>14.19</v>
@@ -5634,7 +5656,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K106" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>14.19</v>
@@ -5685,7 +5707,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K107" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L107" t="n">
         <v>14.19</v>
@@ -5736,7 +5758,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K108" t="n">
-        <v>42.85714285714264</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>14.18</v>
@@ -5787,7 +5809,7 @@
         <v>8.000000000000009</v>
       </c>
       <c r="K109" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>14.17</v>
@@ -5838,7 +5860,7 @@
         <v>8.000000000000009</v>
       </c>
       <c r="K110" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>14.16</v>
@@ -5889,7 +5911,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K111" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>14.16</v>
@@ -5940,7 +5962,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K112" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>14.17</v>
@@ -5991,7 +6013,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>14.18</v>
@@ -6042,7 +6064,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>14.18</v>
@@ -6093,7 +6115,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L115" t="n">
         <v>14.19</v>
@@ -6144,7 +6166,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L116" t="n">
         <v>14.2</v>
@@ -6195,7 +6217,7 @@
         <v>8.30000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>25.00000000000006</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L117" t="n">
         <v>14.22</v>
@@ -6246,7 +6268,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K118" t="n">
-        <v>39.99999999999986</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>14.27</v>
@@ -6297,7 +6319,7 @@
         <v>8.700000000000008</v>
       </c>
       <c r="K119" t="n">
-        <v>40.00000000000011</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L119" t="n">
         <v>14.32</v>
@@ -6348,7 +6370,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K120" t="n">
-        <v>7.692307692307819</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L120" t="n">
         <v>14.34</v>
@@ -6399,7 +6421,7 @@
         <v>9.300000000000006</v>
       </c>
       <c r="K121" t="n">
-        <v>25.00000000000008</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L121" t="n">
         <v>14.38</v>
@@ -6450,7 +6472,7 @@
         <v>9.300000000000006</v>
       </c>
       <c r="K122" t="n">
-        <v>33.33333333333341</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L122" t="n">
         <v>14.42000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>9.400000000000006</v>
       </c>
       <c r="K123" t="n">
-        <v>25.00000000000008</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L123" t="n">
         <v>14.45000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>9.600000000000005</v>
       </c>
       <c r="K124" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>14.46000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>9.600000000000005</v>
       </c>
       <c r="K125" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>14.46000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>9.900000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>20.00000000000007</v>
+        <v>12.5</v>
       </c>
       <c r="L126" t="n">
         <v>14.49000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>10.1</v>
       </c>
       <c r="K127" t="n">
-        <v>9.090909090909165</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>14.49000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>10.3</v>
       </c>
       <c r="K128" t="n">
-        <v>16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>14.48000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>10.5</v>
       </c>
       <c r="K129" t="n">
-        <v>12.00000000000006</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L129" t="n">
         <v>14.46000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>10.6</v>
       </c>
       <c r="K130" t="n">
-        <v>15.38461538461544</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L130" t="n">
         <v>14.48000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>10.6</v>
       </c>
       <c r="K131" t="n">
-        <v>12.00000000000006</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L131" t="n">
         <v>14.47000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>10.6</v>
       </c>
       <c r="K132" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>14.46000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>10.8</v>
       </c>
       <c r="K133" t="n">
-        <v>3.703703703703767</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>14.44000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>10.8</v>
       </c>
       <c r="K134" t="n">
-        <v>3.703703703703767</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>14.44000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>10.9</v>
       </c>
       <c r="K135" t="n">
-        <v>-3.703703703703767</v>
+        <v>-40.00000000000011</v>
       </c>
       <c r="L135" t="n">
         <v>14.43000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>10.9</v>
       </c>
       <c r="K136" t="n">
-        <v>-3.703703703703767</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L136" t="n">
         <v>14.39000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>11.2</v>
       </c>
       <c r="K137" t="n">
-        <v>3.448275862068961</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L137" t="n">
         <v>14.40000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>11.2</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.692307692307682</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L138" t="n">
         <v>14.39000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>11.3</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.692307692307682</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L139" t="n">
         <v>14.39000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>11.4</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L140" t="n">
         <v>14.37000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>11.6</v>
       </c>
       <c r="K141" t="n">
-        <v>-4.347826086956514</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>14.37000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>11.6</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.347826086956514</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L142" t="n">
         <v>14.37000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>11.8</v>
       </c>
       <c r="K143" t="n">
-        <v>-8.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>14.37000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="K144" t="n">
-        <v>8.33333333333332</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L144" t="n">
         <v>14.39000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="K145" t="n">
-        <v>8.33333333333332</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L145" t="n">
         <v>14.42000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>12</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.761904761904754</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>14.45000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>12.2</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.761904761904754</v>
+        <v>-20</v>
       </c>
       <c r="L147" t="n">
         <v>14.43000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>12.5</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L148" t="n">
         <v>14.44000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>12.6</v>
       </c>
       <c r="K149" t="n">
-        <v>4.761904761904754</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L149" t="n">
         <v>14.45000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>12.7</v>
       </c>
       <c r="K151" t="n">
-        <v>4.761904761904754</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L151" t="n">
         <v>14.48000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>12.9</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.347826086956514</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>14.47000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>13</v>
       </c>
       <c r="K153" t="n">
-        <v>9.090909090909076</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>14.49000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>13.2</v>
       </c>
       <c r="K154" t="n">
-        <v>16.66666666666664</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L154" t="n">
         <v>14.51000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>13.3</v>
       </c>
       <c r="K155" t="n">
-        <v>16.66666666666673</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L155" t="n">
         <v>14.52</v>
@@ -8184,7 +8206,7 @@
         <v>13.4</v>
       </c>
       <c r="K156" t="n">
-        <v>20.00000000000006</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>14.54</v>
@@ -8235,7 +8257,7 @@
         <v>13.4</v>
       </c>
       <c r="K157" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L157" t="n">
         <v>14.58</v>
@@ -8286,7 +8308,7 @@
         <v>13.4</v>
       </c>
       <c r="K158" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L158" t="n">
         <v>14.59</v>
@@ -8337,7 +8359,7 @@
         <v>13.5</v>
       </c>
       <c r="K159" t="n">
-        <v>18.18181818181825</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L159" t="n">
         <v>14.62</v>
@@ -8388,7 +8410,7 @@
         <v>13.5</v>
       </c>
       <c r="K160" t="n">
-        <v>23.80952380952387</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L160" t="n">
         <v>14.65</v>
@@ -8439,7 +8461,7 @@
         <v>13.5</v>
       </c>
       <c r="K161" t="n">
-        <v>15.78947368421061</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L161" t="n">
         <v>14.67000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>13.5</v>
       </c>
       <c r="K162" t="n">
-        <v>15.78947368421061</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L162" t="n">
         <v>14.71</v>
@@ -8541,7 +8563,7 @@
         <v>13.6</v>
       </c>
       <c r="K163" t="n">
-        <v>22.22222222222218</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>14.73</v>
@@ -8592,7 +8614,7 @@
         <v>13.7</v>
       </c>
       <c r="K164" t="n">
-        <v>17.64705882352946</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L164" t="n">
         <v>14.74000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>13.7</v>
       </c>
       <c r="K165" t="n">
-        <v>17.64705882352946</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>14.76000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>13.8</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>14.76000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>13.9</v>
       </c>
       <c r="K167" t="n">
-        <v>29.41176470588231</v>
+        <v>20</v>
       </c>
       <c r="L167" t="n">
         <v>14.77000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>13.9</v>
       </c>
       <c r="K168" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>14.78000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>14</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571418</v>
+        <v>-20</v>
       </c>
       <c r="L169" t="n">
         <v>14.77000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>14.1</v>
       </c>
       <c r="K170" t="n">
-        <v>19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>14.77000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>6.666666666666604</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L171" t="n">
         <v>14.76000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>23.07692307692282</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>14.75000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>7.692307692307608</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L173" t="n">
         <v>14.74000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>-9.090909090908973</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L174" t="n">
         <v>14.72</v>
@@ -9153,7 +9175,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L175" t="n">
         <v>14.7</v>
@@ -9204,7 +9226,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>-27.27272727272692</v>
+        <v>-66.66666666666637</v>
       </c>
       <c r="L176" t="n">
         <v>14.67000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>14.6</v>
       </c>
       <c r="K177" t="n">
-        <v>-16.66666666666647</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L177" t="n">
         <v>14.64</v>
@@ -9306,7 +9328,7 @@
         <v>14.7</v>
       </c>
       <c r="K178" t="n">
-        <v>-7.692307692307608</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L178" t="n">
         <v>14.62</v>
@@ -9357,7 +9379,7 @@
         <v>14.8</v>
       </c>
       <c r="K179" t="n">
-        <v>-23.07692307692299</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L179" t="n">
         <v>14.6</v>
@@ -9408,7 +9430,7 @@
         <v>14.8</v>
       </c>
       <c r="K180" t="n">
-        <v>-23.07692307692299</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>14.57</v>
@@ -9459,7 +9481,7 @@
         <v>15</v>
       </c>
       <c r="K181" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>14.57</v>
@@ -9510,7 +9532,7 @@
         <v>15.1</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L182" t="n">
         <v>14.58</v>
@@ -9561,7 +9583,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.11111111111102</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L183" t="n">
         <v>14.57</v>
@@ -9612,7 +9634,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-11.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>14.57</v>
@@ -9663,7 +9685,7 @@
         <v>15.6</v>
       </c>
       <c r="K185" t="n">
-        <v>-5.263157894736901</v>
+        <v>27.27272727272718</v>
       </c>
       <c r="L185" t="n">
         <v>14.58</v>
@@ -9714,7 +9736,7 @@
         <v>15.9</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571421</v>
+        <v>-7.692307692307672</v>
       </c>
       <c r="L186" t="n">
         <v>14.58</v>
@@ -9765,7 +9787,7 @@
         <v>15.9</v>
       </c>
       <c r="K187" t="n">
-        <v>-20</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L187" t="n">
         <v>14.57</v>
@@ -9816,7 +9838,7 @@
         <v>15.9</v>
       </c>
       <c r="K188" t="n">
-        <v>-20</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L188" t="n">
         <v>14.55000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>15.9</v>
       </c>
       <c r="K189" t="n">
-        <v>-15.78947368421047</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L189" t="n">
         <v>14.54000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>15.9</v>
       </c>
       <c r="K190" t="n">
-        <v>-22.22222222222225</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L190" t="n">
         <v>14.53000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>15.9</v>
       </c>
       <c r="K191" t="n">
-        <v>-17.64705882352937</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L191" t="n">
         <v>14.50000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>16.1</v>
       </c>
       <c r="K192" t="n">
-        <v>-5.263157894736837</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L192" t="n">
         <v>14.48000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>16.3</v>
       </c>
       <c r="K193" t="n">
-        <v>10.00000000000006</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L193" t="n">
         <v>14.51000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>4.761904761904746</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>14.52000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>16.6</v>
       </c>
       <c r="K195" t="n">
-        <v>-4.347826086956508</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L195" t="n">
         <v>14.50000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>16.7</v>
       </c>
       <c r="K196" t="n">
-        <v>9.090909090909069</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L196" t="n">
         <v>14.52000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>13.04347826086959</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L197" t="n">
         <v>14.56000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>4.347826086956501</v>
+        <v>27.2727272727271</v>
       </c>
       <c r="L198" t="n">
         <v>14.59000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>4.347826086956498</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L199" t="n">
         <v>14.61</v>
@@ -10428,7 +10450,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>4.347826086956498</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L200" t="n">
         <v>14.63</v>
@@ -10479,7 +10501,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-4.761904761904734</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>14.65</v>
@@ -10530,7 +10552,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>4.347826086956498</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L202" t="n">
         <v>14.68</v>
@@ -10581,7 +10603,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>19.99999999999998</v>
+        <v>20.00000000000004</v>
       </c>
       <c r="L203" t="n">
         <v>14.69</v>
@@ -10632,7 +10654,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>10.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>14.70000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>5.263157894736911</v>
+        <v>25</v>
       </c>
       <c r="L205" t="n">
         <v>14.73000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>29.41176470588227</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L206" t="n">
         <v>14.76000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>29.41176470588227</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L207" t="n">
         <v>14.77000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>39.99999999999991</v>
+        <v>75.00000000000023</v>
       </c>
       <c r="L208" t="n">
         <v>14.82000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>42.85714285714281</v>
+        <v>77.77777777777803</v>
       </c>
       <c r="L209" t="n">
         <v>14.89000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>42.85714285714281</v>
+        <v>77.77777777777803</v>
       </c>
       <c r="L210" t="n">
         <v>14.96000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>18.3</v>
       </c>
       <c r="K211" t="n">
-        <v>49.99999999999996</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L211" t="n">
         <v>15.06000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>14.28571428571428</v>
+        <v>6.666666666666658</v>
       </c>
       <c r="L212" t="n">
         <v>15.07000000000001</v>
@@ -11091,7 +11113,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>7.692307692307661</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L213" t="n">
         <v>15.08000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>15.38461538461539</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L214" t="n">
         <v>15.11000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>30.76923076923074</v>
+        <v>25</v>
       </c>
       <c r="L215" t="n">
         <v>15.16000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>27.99999999999996</v>
+        <v>25</v>
       </c>
       <c r="L216" t="n">
         <v>15.20000000000001</v>
@@ -11295,7 +11317,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>11.99999999999992</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L217" t="n">
         <v>15.22000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>15.23000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>23.07692307692299</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L219" t="n">
         <v>15.22000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>25.92592592592587</v>
+        <v>-19.99999999999974</v>
       </c>
       <c r="L220" t="n">
         <v>15.22000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>25.92592592592587</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L221" t="n">
         <v>15.19000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L222" t="n">
         <v>15.22000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>25.92592592592584</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L223" t="n">
         <v>15.28000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>33.33333333333316</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L224" t="n">
         <v>15.34000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>28.57142857142842</v>
+        <v>27.27272727272696</v>
       </c>
       <c r="L225" t="n">
         <v>15.37000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>20.50000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>17.24137931034477</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L226" t="n">
         <v>15.38000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>19.99999999999994</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L227" t="n">
         <v>15.42000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>7.142857142857152</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L228" t="n">
         <v>15.43000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>15.44000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>19.99999999999988</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L232" t="n">
         <v>15.45000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L233" t="n">
         <v>15.42000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>9.999999999999982</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L234" t="n">
         <v>15.38000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-9.999999999999982</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L235" t="n">
         <v>15.33000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>-9.999999999999982</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L236" t="n">
         <v>15.30000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>21.30000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>5.263157894736787</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L237" t="n">
         <v>15.27000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>21.40000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>-11.1111111111111</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L238" t="n">
         <v>15.24000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>21.60000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>-15.78947368421039</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L239" t="n">
         <v>15.20000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>21.80000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>-10.00000000000002</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L240" t="n">
         <v>15.18000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>21.80000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>-10.00000000000002</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L241" t="n">
         <v>15.16000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>21.80000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>-10.00000000000002</v>
+        <v>-25</v>
       </c>
       <c r="L242" t="n">
         <v>15.13</v>
@@ -12621,7 +12643,7 @@
         <v>21.80000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>-29.41176470588218</v>
+        <v>-25</v>
       </c>
       <c r="L243" t="n">
         <v>15.11</v>
@@ -12672,7 +12694,7 @@
         <v>21.80000000000003</v>
       </c>
       <c r="K244" t="n">
-        <v>-37.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>15.09</v>
@@ -12723,7 +12745,7 @@
         <v>21.90000000000003</v>
       </c>
       <c r="K245" t="n">
-        <v>-37.49999999999978</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L245" t="n">
         <v>15.08</v>
@@ -12774,7 +12796,7 @@
         <v>22.00000000000003</v>
       </c>
       <c r="K246" t="n">
-        <v>-19.9999999999999</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L246" t="n">
         <v>15.08</v>
@@ -12825,7 +12847,7 @@
         <v>22.00000000000003</v>
       </c>
       <c r="K247" t="n">
-        <v>-28.57142857142833</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>15.07</v>
@@ -12876,7 +12898,7 @@
         <v>22.20000000000003</v>
       </c>
       <c r="K248" t="n">
-        <v>-6.666666666666579</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L248" t="n">
         <v>15.09</v>
@@ -12927,7 +12949,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>15.11</v>
@@ -12978,7 +13000,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>15.11</v>
@@ -13029,7 +13051,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K251" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>15.11</v>
@@ -13080,7 +13102,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K252" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>15.11</v>
@@ -13131,7 +13153,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571423</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>15.11</v>
@@ -13182,7 +13204,7 @@
         <v>22.50000000000004</v>
       </c>
       <c r="K254" t="n">
-        <v>-6.666666666666698</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L254" t="n">
         <v>15.12</v>
@@ -13335,7 +13357,7 @@
         <v>22.70000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571411</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L257" t="n">
         <v>15.12</v>
@@ -13386,7 +13408,7 @@
         <v>22.80000000000004</v>
       </c>
       <c r="K258" t="n">
-        <v>-14.28571428571411</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L258" t="n">
         <v>15.08</v>
@@ -13437,7 +13459,7 @@
         <v>22.90000000000004</v>
       </c>
       <c r="K259" t="n">
-        <v>7.692307692307576</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L259" t="n">
         <v>15.07</v>
@@ -13488,7 +13510,7 @@
         <v>22.90000000000004</v>
       </c>
       <c r="K260" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L260" t="n">
         <v>15.06</v>
@@ -13539,7 +13561,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K261" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L261" t="n">
         <v>15.04</v>
@@ -13590,7 +13612,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K262" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L262" t="n">
         <v>15.02</v>
@@ -13641,7 +13663,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K263" t="n">
-        <v>-23.07692307692267</v>
+        <v>-66.66666666666549</v>
       </c>
       <c r="L263" t="n">
         <v>14.99000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>-23.07692307692267</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L264" t="n">
         <v>14.95000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>23.20000000000005</v>
       </c>
       <c r="K265" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L265" t="n">
         <v>14.93000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>23.50000000000005</v>
       </c>
       <c r="K266" t="n">
-        <v>-33.33333333333294</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L266" t="n">
         <v>14.88000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K267" t="n">
-        <v>-24.99999999999978</v>
+        <v>-25</v>
       </c>
       <c r="L267" t="n">
         <v>14.85000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>23.80000000000004</v>
       </c>
       <c r="K268" t="n">
-        <v>-49.99999999999967</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L268" t="n">
         <v>14.81000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>23.90000000000004</v>
       </c>
       <c r="K269" t="n">
-        <v>-33.33333333333318</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L269" t="n">
         <v>14.77000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>24.00000000000004</v>
       </c>
       <c r="K270" t="n">
-        <v>-37.49999999999978</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L270" t="n">
         <v>14.72000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>24.10000000000004</v>
       </c>
       <c r="K271" t="n">
-        <v>-29.41176470588218</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L271" t="n">
         <v>14.69000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>24.20000000000005</v>
       </c>
       <c r="K272" t="n">
-        <v>-33.3333333333331</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L272" t="n">
         <v>14.65000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>24.40000000000004</v>
       </c>
       <c r="K273" t="n">
-        <v>-39.99999999999974</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L273" t="n">
         <v>14.6</v>
@@ -14202,7 +14224,7 @@
         <v>24.50000000000005</v>
       </c>
       <c r="K274" t="n">
-        <v>-49.99999999999973</v>
+        <v>-53.8461538461539</v>
       </c>
       <c r="L274" t="n">
         <v>14.54</v>
@@ -14253,7 +14275,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K275" t="n">
-        <v>-33.33333333333317</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L275" t="n">
         <v>14.49</v>
@@ -14304,7 +14326,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K276" t="n">
-        <v>-36.36363636363615</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L276" t="n">
         <v>14.46</v>
@@ -14355,7 +14377,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K277" t="n">
-        <v>-33.33333333333317</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L277" t="n">
         <v>14.42000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K278" t="n">
-        <v>-29.99999999999988</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>14.40000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K279" t="n">
-        <v>-36.84210526315775</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L279" t="n">
         <v>14.37000000000001</v>
@@ -14508,7 +14530,7 @@
         <v>24.90000000000005</v>
       </c>
       <c r="K280" t="n">
-        <v>-29.99999999999988</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L280" t="n">
         <v>14.36000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>24.90000000000005</v>
       </c>
       <c r="K281" t="n">
-        <v>-26.31578947368413</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L281" t="n">
         <v>14.34000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>24.90000000000005</v>
       </c>
       <c r="K282" t="n">
-        <v>-26.31578947368413</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L282" t="n">
         <v>14.33000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>25.00000000000005</v>
       </c>
       <c r="K283" t="n">
-        <v>-15.78947368421052</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L283" t="n">
         <v>14.35000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>25.10000000000005</v>
       </c>
       <c r="K284" t="n">
-        <v>-19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>14.37000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>25.20000000000005</v>
       </c>
       <c r="K285" t="n">
-        <v>-19.99999999999995</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L285" t="n">
         <v>14.38000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>25.30000000000005</v>
       </c>
       <c r="K286" t="n">
-        <v>-11.11111111111102</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L286" t="n">
         <v>14.39000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>25.40000000000006</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L287" t="n">
         <v>14.41000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>25.50000000000006</v>
       </c>
       <c r="K288" t="n">
-        <v>-5.882352941176404</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L288" t="n">
         <v>14.42000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>25.50000000000006</v>
       </c>
       <c r="K289" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>14.43000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>25.60000000000006</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L290" t="n">
         <v>14.44000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>25.60000000000006</v>
       </c>
       <c r="K291" t="n">
-        <v>-6.666666666666579</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L291" t="n">
         <v>14.45000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>25.70000000000006</v>
       </c>
       <c r="K292" t="n">
-        <v>6.666666666666579</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L292" t="n">
         <v>14.47000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>25.70000000000006</v>
       </c>
       <c r="K293" t="n">
-        <v>23.07692307692273</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L293" t="n">
         <v>14.48000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>25.80000000000006</v>
       </c>
       <c r="K294" t="n">
-        <v>38.46153846153802</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L294" t="n">
         <v>14.51000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>25.80000000000006</v>
       </c>
       <c r="K295" t="n">
-        <v>27.27272727272679</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L295" t="n">
         <v>14.53</v>
@@ -15324,7 +15346,7 @@
         <v>25.80000000000006</v>
       </c>
       <c r="K296" t="n">
-        <v>39.99999999999929</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L296" t="n">
         <v>14.56</v>
@@ -15375,7 +15397,7 @@
         <v>25.90000000000006</v>
       </c>
       <c r="K297" t="n">
-        <v>45.45454545454481</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L297" t="n">
         <v>14.59</v>
@@ -15426,7 +15448,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K298" t="n">
-        <v>33.33333333333275</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L298" t="n">
         <v>14.62</v>
@@ -15477,7 +15499,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K299" t="n">
-        <v>33.33333333333275</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L299" t="n">
         <v>14.65</v>
@@ -15528,7 +15550,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K300" t="n">
-        <v>27.27272727272679</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L300" t="n">
         <v>14.67</v>
@@ -15579,7 +15601,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K301" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L301" t="n">
         <v>14.69</v>
@@ -15630,7 +15652,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K302" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L302" t="n">
         <v>14.7</v>
@@ -15681,7 +15703,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K303" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>14.71</v>
@@ -15732,7 +15754,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>14.71</v>
@@ -15783,7 +15805,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>14.71</v>
@@ -15834,7 +15856,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K306" t="n">
-        <v>42.85714285714209</v>
+        <v>-100</v>
       </c>
       <c r="L306" t="n">
         <v>14.71</v>
@@ -15884,9 +15906,7 @@
       <c r="J307" t="n">
         <v>26.00000000000006</v>
       </c>
-      <c r="K307" t="n">
-        <v>33.33333333333275</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -15935,9 +15955,7 @@
       <c r="J308" t="n">
         <v>26.00000000000006</v>
       </c>
-      <c r="K308" t="n">
-        <v>59.99999999999893</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -15986,9 +16004,7 @@
       <c r="J309" t="n">
         <v>26.00000000000006</v>
       </c>
-      <c r="K309" t="n">
-        <v>59.99999999999893</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -16038,7 +16054,7 @@
         <v>26.10000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L310" t="n">
         <v>14.68999999999999</v>
@@ -16089,7 +16105,7 @@
         <v>26.10000000000007</v>
       </c>
       <c r="K311" t="n">
-        <v>19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L311" t="n">
         <v>14.68</v>
@@ -16140,7 +16156,7 @@
         <v>26.10000000000007</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L312" t="n">
         <v>14.67</v>
@@ -16191,7 +16207,7 @@
         <v>26.10000000000007</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L313" t="n">
         <v>14.66</v>
@@ -16242,7 +16258,7 @@
         <v>26.10000000000007</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L314" t="n">
         <v>14.65</v>
@@ -16293,7 +16309,7 @@
         <v>26.30000000000006</v>
       </c>
       <c r="K315" t="n">
-        <v>-59.99999999999937</v>
+        <v>-99.99999999999942</v>
       </c>
       <c r="L315" t="n">
         <v>14.62</v>
@@ -16344,7 +16360,7 @@
         <v>26.40000000000006</v>
       </c>
       <c r="K316" t="n">
-        <v>-33.33333333333314</v>
+        <v>-50</v>
       </c>
       <c r="L316" t="n">
         <v>14.6</v>
@@ -16395,7 +16411,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K317" t="n">
-        <v>-66.66666666666656</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L317" t="n">
         <v>14.57</v>
@@ -16497,7 +16513,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K319" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>14.54</v>
@@ -16548,7 +16564,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K320" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>14.54</v>
@@ -16599,7 +16615,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K321" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>14.54</v>
@@ -16650,7 +16666,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K322" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>14.54</v>
@@ -16701,7 +16717,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>14.54</v>
@@ -16752,7 +16768,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571418</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L324" t="n">
         <v>14.54</v>
@@ -16803,7 +16819,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K325" t="n">
-        <v>-14.28571428571418</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L325" t="n">
         <v>14.56</v>
@@ -16854,7 +16870,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K326" t="n">
-        <v>-14.28571428571418</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L326" t="n">
         <v>14.57</v>
@@ -16905,7 +16921,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K327" t="n">
-        <v>-14.28571428571418</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L327" t="n">
         <v>14.59</v>
@@ -16955,9 +16971,7 @@
       <c r="J328" t="n">
         <v>26.70000000000007</v>
       </c>
-      <c r="K328" t="n">
-        <v>-14.28571428571418</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>14.6</v>
       </c>
@@ -17006,9 +17020,7 @@
       <c r="J329" t="n">
         <v>26.70000000000007</v>
       </c>
-      <c r="K329" t="n">
-        <v>-14.28571428571418</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>14.6</v>
       </c>
@@ -17057,9 +17069,7 @@
       <c r="J330" t="n">
         <v>26.70000000000007</v>
       </c>
-      <c r="K330" t="n">
-        <v>0</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>14.6</v>
       </c>
@@ -17108,9 +17118,7 @@
       <c r="J331" t="n">
         <v>26.70000000000007</v>
       </c>
-      <c r="K331" t="n">
-        <v>0</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>14.6</v>
       </c>
@@ -17159,9 +17167,7 @@
       <c r="J332" t="n">
         <v>26.70000000000007</v>
       </c>
-      <c r="K332" t="n">
-        <v>0</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>14.6</v>
       </c>
@@ -17211,7 +17217,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K333" t="n">
-        <v>25</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L333" t="n">
         <v>14.62</v>
@@ -17262,7 +17268,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K334" t="n">
-        <v>25</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L334" t="n">
         <v>14.64</v>
@@ -17313,7 +17319,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K335" t="n">
-        <v>66.66666666666617</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L335" t="n">
         <v>14.66000000000001</v>
@@ -17364,7 +17370,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>59.99999999999929</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L336" t="n">
         <v>14.68000000000001</v>
@@ -17415,7 +17421,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>99.99999999999866</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L337" t="n">
         <v>14.70000000000001</v>
@@ -17466,7 +17472,7 @@
         <v>26.90000000000007</v>
       </c>
       <c r="K338" t="n">
-        <v>99.99999999999881</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L338" t="n">
         <v>14.72000000000001</v>
@@ -17670,7 +17676,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L342" t="n">
         <v>14.77000000000001</v>
@@ -17721,7 +17727,7 @@
         <v>27.20000000000007</v>
       </c>
       <c r="K343" t="n">
-        <v>19.99999999999964</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>14.76000000000001</v>
@@ -17772,7 +17778,7 @@
         <v>27.20000000000007</v>
       </c>
       <c r="K344" t="n">
-        <v>19.99999999999964</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>14.75000000000001</v>
@@ -17823,7 +17829,7 @@
         <v>27.30000000000008</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>14.75000000000001</v>
@@ -17874,7 +17880,7 @@
         <v>27.40000000000008</v>
       </c>
       <c r="K346" t="n">
-        <v>14.28571428571403</v>
+        <v>-20</v>
       </c>
       <c r="L346" t="n">
         <v>14.74000000000001</v>
@@ -17925,7 +17931,7 @@
         <v>27.50000000000008</v>
       </c>
       <c r="K347" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>14.74000000000001</v>
@@ -17976,7 +17982,7 @@
         <v>27.70000000000008</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L348" t="n">
         <v>14.72</v>
@@ -18031,7 +18037,7 @@
         <v>28.00000000000008</v>
       </c>
       <c r="K349" t="n">
-        <v>-23.07692307692279</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L349" t="n">
         <v>14.67000000000001</v>
@@ -18088,7 +18094,7 @@
         <v>28.20000000000008</v>
       </c>
       <c r="K350" t="n">
-        <v>-6.666666666666596</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L350" t="n">
         <v>14.64</v>
@@ -18147,7 +18153,7 @@
         <v>28.20000000000008</v>
       </c>
       <c r="K351" t="n">
-        <v>-6.666666666666596</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L351" t="n">
         <v>14.62</v>
@@ -18210,7 +18216,7 @@
         <v>28.30000000000008</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L352" t="n">
         <v>14.62</v>
@@ -18273,7 +18279,7 @@
         <v>28.30000000000008</v>
       </c>
       <c r="K353" t="n">
-        <v>-14.2857142857143</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L353" t="n">
         <v>14.61</v>
@@ -18336,7 +18342,7 @@
         <v>28.40000000000008</v>
       </c>
       <c r="K354" t="n">
-        <v>-19.99999999999995</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L354" t="n">
         <v>14.59000000000001</v>
@@ -18399,7 +18405,7 @@
         <v>28.50000000000008</v>
       </c>
       <c r="K355" t="n">
-        <v>-24.99999999999989</v>
+        <v>-27.27272727272714</v>
       </c>
       <c r="L355" t="n">
         <v>14.55000000000001</v>
@@ -18462,7 +18468,7 @@
         <v>28.60000000000008</v>
       </c>
       <c r="K356" t="n">
-        <v>-17.64705882352935</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L356" t="n">
         <v>14.53000000000001</v>
@@ -18525,7 +18531,7 @@
         <v>28.70000000000008</v>
       </c>
       <c r="K357" t="n">
-        <v>-22.2222222222221</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L357" t="n">
         <v>14.49000000000001</v>
@@ -18588,7 +18594,7 @@
         <v>28.70000000000008</v>
       </c>
       <c r="K358" t="n">
-        <v>-22.2222222222221</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L358" t="n">
         <v>14.47000000000001</v>
@@ -18651,7 +18657,7 @@
         <v>28.80000000000008</v>
       </c>
       <c r="K359" t="n">
-        <v>-26.31578947368403</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L359" t="n">
         <v>14.47000000000001</v>
@@ -18714,7 +18720,7 @@
         <v>28.90000000000008</v>
       </c>
       <c r="K360" t="n">
-        <v>-19.99999999999988</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L360" t="n">
         <v>14.46000000000001</v>
@@ -18773,7 +18779,7 @@
         <v>28.90000000000008</v>
       </c>
       <c r="K361" t="n">
-        <v>-15.78947368421036</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L361" t="n">
         <v>14.45000000000001</v>
@@ -18836,7 +18842,7 @@
         <v>28.90000000000008</v>
       </c>
       <c r="K362" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L362" t="n">
         <v>14.43000000000001</v>
@@ -18899,7 +18905,7 @@
         <v>29.00000000000009</v>
       </c>
       <c r="K363" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>14.42000000000001</v>
@@ -18960,7 +18966,7 @@
         <v>29.10000000000009</v>
       </c>
       <c r="K364" t="n">
-        <v>-5.263157894736787</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L364" t="n">
         <v>14.43000000000001</v>
@@ -19021,7 +19027,7 @@
         <v>29.10000000000009</v>
       </c>
       <c r="K365" t="n">
-        <v>-11.1111111111111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L365" t="n">
         <v>14.45000000000001</v>
@@ -19082,7 +19088,7 @@
         <v>29.20000000000009</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.111111111111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L366" t="n">
         <v>14.45000000000001</v>
@@ -19143,7 +19149,7 @@
         <v>29.30000000000009</v>
       </c>
       <c r="K367" t="n">
-        <v>-11.1111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L367" t="n">
         <v>14.47000000000001</v>
@@ -19204,7 +19210,7 @@
         <v>29.40000000000009</v>
       </c>
       <c r="K368" t="n">
-        <v>5.882352941176415</v>
+        <v>66.66666666666549</v>
       </c>
       <c r="L368" t="n">
         <v>14.50000000000001</v>
@@ -19261,7 +19267,7 @@
         <v>29.50000000000009</v>
       </c>
       <c r="K369" t="n">
-        <v>19.99999999999974</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L369" t="n">
         <v>14.53</v>
@@ -19318,7 +19324,7 @@
         <v>29.60000000000009</v>
       </c>
       <c r="K370" t="n">
-        <v>14.28571428571407</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L370" t="n">
         <v>14.56</v>
@@ -19369,7 +19375,7 @@
         <v>29.7000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>19.99999999999981</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L371" t="n">
         <v>14.6</v>
@@ -19420,7 +19426,7 @@
         <v>29.9000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L372" t="n">
         <v>14.62</v>
@@ -19471,7 +19477,7 @@
         <v>30.1000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>11.11111111111101</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L373" t="n">
         <v>14.65</v>
@@ -19522,7 +19528,7 @@
         <v>30.2000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>11.11111111111091</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L374" t="n">
         <v>14.66</v>
@@ -19573,7 +19579,7 @@
         <v>30.3000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>11.11111111111091</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L375" t="n">
         <v>14.66</v>
@@ -19624,7 +19630,7 @@
         <v>30.40000000000011</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L376" t="n">
         <v>14.66</v>
@@ -19675,7 +19681,7 @@
         <v>30.50000000000011</v>
       </c>
       <c r="K377" t="n">
-        <v>11.11111111111091</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L377" t="n">
         <v>14.66</v>
@@ -19726,7 +19732,7 @@
         <v>30.50000000000011</v>
       </c>
       <c r="K378" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>14.65</v>
@@ -19777,7 +19783,7 @@
         <v>30.60000000000011</v>
       </c>
       <c r="K379" t="n">
-        <v>11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L379" t="n">
         <v>14.64</v>
@@ -19828,7 +19834,7 @@
         <v>30.80000000000011</v>
       </c>
       <c r="K380" t="n">
-        <v>15.78947368421028</v>
+        <v>-9.09090909090912</v>
       </c>
       <c r="L380" t="n">
         <v>14.64</v>
@@ -19879,7 +19885,7 @@
         <v>30.80000000000011</v>
       </c>
       <c r="K381" t="n">
-        <v>15.78947368421028</v>
+        <v>11.11111111111096</v>
       </c>
       <c r="L381" t="n">
         <v>14.63</v>
@@ -19930,7 +19936,7 @@
         <v>30.80000000000011</v>
       </c>
       <c r="K382" t="n">
-        <v>15.78947368421028</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L382" t="n">
         <v>14.64</v>
@@ -19981,7 +19987,7 @@
         <v>31.00000000000011</v>
       </c>
       <c r="K383" t="n">
-        <v>19.9999999999998</v>
+        <v>25</v>
       </c>
       <c r="L383" t="n">
         <v>14.65</v>
@@ -20032,7 +20038,7 @@
         <v>31.10000000000011</v>
       </c>
       <c r="K384" t="n">
-        <v>9.999999999999947</v>
+        <v>25</v>
       </c>
       <c r="L384" t="n">
         <v>14.66</v>
@@ -20083,7 +20089,7 @@
         <v>31.20000000000011</v>
       </c>
       <c r="K385" t="n">
-        <v>14.28571428571417</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L385" t="n">
         <v>14.69</v>
@@ -20134,7 +20140,7 @@
         <v>31.30000000000011</v>
       </c>
       <c r="K386" t="n">
-        <v>14.28571428571417</v>
+        <v>25</v>
       </c>
       <c r="L386" t="n">
         <v>14.72</v>
@@ -20185,7 +20191,7 @@
         <v>31.30000000000011</v>
       </c>
       <c r="K387" t="n">
-        <v>9.999999999999947</v>
+        <v>25</v>
       </c>
       <c r="L387" t="n">
         <v>14.74000000000001</v>
@@ -20236,7 +20242,7 @@
         <v>31.40000000000011</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L388" t="n">
         <v>14.75000000000001</v>
@@ -20287,7 +20293,7 @@
         <v>31.60000000000012</v>
       </c>
       <c r="K389" t="n">
-        <v>14.28571428571417</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L389" t="n">
         <v>14.79000000000001</v>
@@ -20338,7 +20344,7 @@
         <v>31.70000000000012</v>
       </c>
       <c r="K390" t="n">
-        <v>4.761904761904779</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L390" t="n">
         <v>14.80000000000001</v>
@@ -20389,7 +20395,7 @@
         <v>31.80000000000012</v>
       </c>
       <c r="K391" t="n">
-        <v>4.761904761904693</v>
+        <v>19.99999999999989</v>
       </c>
       <c r="L391" t="n">
         <v>14.82000000000001</v>
@@ -20440,7 +20446,7 @@
         <v>32.00000000000012</v>
       </c>
       <c r="K392" t="n">
-        <v>4.761904761904693</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L392" t="n">
         <v>14.82000000000001</v>
@@ -20542,7 +20548,7 @@
         <v>32.20000000000012</v>
       </c>
       <c r="K394" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>14.82000000000001</v>
@@ -20593,7 +20599,7 @@
         <v>32.20000000000012</v>
       </c>
       <c r="K395" t="n">
-        <v>15.7894736842104</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L395" t="n">
         <v>14.82000000000001</v>
@@ -20644,7 +20650,7 @@
         <v>32.30000000000013</v>
       </c>
       <c r="K396" t="n">
-        <v>15.7894736842104</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>14.82000000000001</v>
@@ -20695,7 +20701,7 @@
         <v>32.40000000000013</v>
       </c>
       <c r="K397" t="n">
-        <v>5.263157894736768</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>14.81000000000001</v>
@@ -20746,7 +20752,7 @@
         <v>32.40000000000013</v>
       </c>
       <c r="K398" t="n">
-        <v>5.263157894736768</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L398" t="n">
         <v>14.81000000000001</v>
@@ -20797,7 +20803,7 @@
         <v>32.40000000000013</v>
       </c>
       <c r="K399" t="n">
-        <v>11.11111111111096</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L399" t="n">
         <v>14.79000000000001</v>
@@ -20848,7 +20854,7 @@
         <v>32.40000000000013</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L400" t="n">
         <v>14.78</v>
@@ -20950,7 +20956,7 @@
         <v>32.50000000000013</v>
       </c>
       <c r="K402" t="n">
-        <v>5.882352941176483</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>14.77</v>
@@ -21001,7 +21007,7 @@
         <v>32.50000000000013</v>
       </c>
       <c r="K403" t="n">
-        <v>-6.666666666666549</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L403" t="n">
         <v>14.77</v>
@@ -21052,7 +21058,7 @@
         <v>32.60000000000013</v>
       </c>
       <c r="K404" t="n">
-        <v>-6.666666666666667</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L404" t="n">
         <v>14.75</v>
@@ -21103,7 +21109,7 @@
         <v>32.60000000000013</v>
       </c>
       <c r="K405" t="n">
-        <v>-14.28571428571416</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>14.73</v>
@@ -21154,7 +21160,7 @@
         <v>32.70000000000013</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>14.73</v>
@@ -21205,7 +21211,7 @@
         <v>32.70000000000013</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L407" t="n">
         <v>14.74</v>
@@ -21256,7 +21262,7 @@
         <v>32.70000000000013</v>
       </c>
       <c r="K408" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>14.75000000000001</v>
@@ -21307,7 +21313,7 @@
         <v>32.80000000000013</v>
       </c>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L409" t="n">
         <v>14.77000000000001</v>
@@ -21358,7 +21364,7 @@
         <v>32.80000000000013</v>
       </c>
       <c r="K410" t="n">
-        <v>9.090909090908928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L410" t="n">
         <v>14.79000000000001</v>
@@ -21409,7 +21415,7 @@
         <v>32.80000000000013</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L411" t="n">
         <v>14.81000000000001</v>
@@ -21460,7 +21466,7 @@
         <v>32.80000000000013</v>
       </c>
       <c r="K412" t="n">
-        <v>24.99999999999978</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L412" t="n">
         <v>14.82000000000001</v>
@@ -21511,7 +21517,7 @@
         <v>32.90000000000013</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>14.82000000000001</v>
@@ -21562,7 +21568,7 @@
         <v>33.00000000000014</v>
       </c>
       <c r="K414" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>14.82000000000001</v>
@@ -21613,7 +21619,7 @@
         <v>33.10000000000014</v>
       </c>
       <c r="K415" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>14.83000000000001</v>
@@ -21664,7 +21670,7 @@
         <v>33.30000000000014</v>
       </c>
       <c r="K416" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L416" t="n">
         <v>14.81000000000001</v>
@@ -21715,7 +21721,7 @@
         <v>33.30000000000014</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L417" t="n">
         <v>14.79000000000001</v>
@@ -21766,7 +21772,7 @@
         <v>33.50000000000014</v>
       </c>
       <c r="K418" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L418" t="n">
         <v>14.79000000000001</v>
@@ -21817,7 +21823,7 @@
         <v>33.50000000000014</v>
       </c>
       <c r="K419" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L419" t="n">
         <v>14.78000000000001</v>
@@ -21868,7 +21874,7 @@
         <v>33.50000000000014</v>
       </c>
       <c r="K420" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L420" t="n">
         <v>14.77000000000001</v>
@@ -21919,7 +21925,7 @@
         <v>33.70000000000014</v>
       </c>
       <c r="K421" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L421" t="n">
         <v>14.74000000000001</v>
@@ -21970,7 +21976,7 @@
         <v>33.80000000000015</v>
       </c>
       <c r="K422" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L422" t="n">
         <v>14.72000000000001</v>
@@ -22021,7 +22027,7 @@
         <v>33.90000000000015</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.28571428571416</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L423" t="n">
         <v>14.70000000000001</v>
@@ -22072,7 +22078,7 @@
         <v>33.90000000000015</v>
       </c>
       <c r="K424" t="n">
-        <v>-7.692307692307556</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L424" t="n">
         <v>14.69000000000001</v>
@@ -22174,7 +22180,7 @@
         <v>34.20000000000014</v>
       </c>
       <c r="K426" t="n">
-        <v>-6.666666666666698</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L426" t="n">
         <v>14.67000000000001</v>
@@ -22225,7 +22231,7 @@
         <v>34.50000000000014</v>
       </c>
       <c r="K427" t="n">
-        <v>-22.2222222222221</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L427" t="n">
         <v>14.65000000000001</v>
@@ -22276,7 +22282,7 @@
         <v>34.80000000000014</v>
       </c>
       <c r="K428" t="n">
-        <v>-4.76190476190481</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L428" t="n">
         <v>14.64</v>
@@ -22327,7 +22333,7 @@
         <v>35.00000000000014</v>
       </c>
       <c r="K429" t="n">
-        <v>-18.18181818181812</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L429" t="n">
         <v>14.61</v>
@@ -22378,7 +22384,7 @@
         <v>35.20000000000014</v>
       </c>
       <c r="K430" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666643</v>
       </c>
       <c r="L430" t="n">
         <v>14.6</v>
@@ -22429,7 +22435,7 @@
         <v>35.40000000000015</v>
       </c>
       <c r="K431" t="n">
-        <v>-15.38461538461531</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L431" t="n">
         <v>14.59</v>
@@ -22480,7 +22486,7 @@
         <v>35.40000000000015</v>
       </c>
       <c r="K432" t="n">
-        <v>-15.38461538461531</v>
+        <v>-6.666666666666643</v>
       </c>
       <c r="L432" t="n">
         <v>14.57</v>
@@ -22531,7 +22537,7 @@
         <v>35.50000000000015</v>
       </c>
       <c r="K433" t="n">
-        <v>-7.692307692307687</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>14.57</v>
@@ -22582,7 +22588,7 @@
         <v>35.50000000000015</v>
       </c>
       <c r="K434" t="n">
-        <v>-3.999999999999963</v>
+        <v>6.666666666666643</v>
       </c>
       <c r="L434" t="n">
         <v>14.57</v>
@@ -22633,7 +22639,7 @@
         <v>35.60000000000015</v>
       </c>
       <c r="K435" t="n">
-        <v>-11.99999999999996</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L435" t="n">
         <v>14.57</v>
@@ -22684,7 +22690,7 @@
         <v>35.60000000000015</v>
       </c>
       <c r="K436" t="n">
-        <v>-4.347826086956485</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L436" t="n">
         <v>14.55</v>
@@ -22735,7 +22741,7 @@
         <v>35.70000000000015</v>
       </c>
       <c r="K437" t="n">
-        <v>-8.333333333333259</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L437" t="n">
         <v>14.55</v>
@@ -22786,7 +22792,7 @@
         <v>35.70000000000015</v>
       </c>
       <c r="K438" t="n">
-        <v>-18.18181818181812</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L438" t="n">
         <v>14.52</v>
@@ -22837,7 +22843,7 @@
         <v>36.00000000000015</v>
       </c>
       <c r="K439" t="n">
-        <v>-4.000000000000045</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>14.54</v>
@@ -22888,7 +22894,7 @@
         <v>36.20000000000014</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.11111111111112</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>14.52</v>
@@ -22939,7 +22945,7 @@
         <v>36.40000000000015</v>
       </c>
       <c r="K441" t="n">
-        <v>3.703703703703687</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L441" t="n">
         <v>14.54</v>
@@ -22990,7 +22996,7 @@
         <v>36.70000000000014</v>
       </c>
       <c r="K442" t="n">
-        <v>-10.34482758620686</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>14.53</v>
@@ -23092,7 +23098,7 @@
         <v>36.90000000000015</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>7.692307692307682</v>
       </c>
       <c r="L444" t="n">
         <v>14.53</v>
@@ -23143,7 +23149,7 @@
         <v>37.00000000000015</v>
       </c>
       <c r="K445" t="n">
-        <v>6.666666666666643</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L445" t="n">
         <v>14.55</v>
@@ -23194,7 +23200,7 @@
         <v>37.00000000000015</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L446" t="n">
         <v>14.57</v>
@@ -23245,7 +23251,7 @@
         <v>37.00000000000015</v>
       </c>
       <c r="K447" t="n">
-        <v>11.99999999999992</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L447" t="n">
         <v>14.6</v>
@@ -23296,7 +23302,7 @@
         <v>37.10000000000015</v>
       </c>
       <c r="K448" t="n">
-        <v>4.347826086956561</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L448" t="n">
         <v>14.64</v>
@@ -23347,7 +23353,7 @@
         <v>37.10000000000015</v>
       </c>
       <c r="K449" t="n">
-        <v>14.28571428571426</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L449" t="n">
         <v>14.65</v>
@@ -23449,7 +23455,7 @@
         <v>37.20000000000015</v>
       </c>
       <c r="K451" t="n">
-        <v>11.11111111111104</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L451" t="n">
         <v>14.67</v>
@@ -23500,7 +23506,7 @@
         <v>37.20000000000015</v>
       </c>
       <c r="K452" t="n">
-        <v>11.11111111111104</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L452" t="n">
         <v>14.7</v>
@@ -23602,7 +23608,7 @@
         <v>37.50000000000016</v>
       </c>
       <c r="K454" t="n">
-        <v>10.00000000000002</v>
+        <v>20</v>
       </c>
       <c r="L454" t="n">
         <v>14.72</v>
@@ -23653,7 +23659,7 @@
         <v>37.50000000000016</v>
       </c>
       <c r="K455" t="n">
-        <v>15.78947368421052</v>
+        <v>20</v>
       </c>
       <c r="L455" t="n">
         <v>14.73</v>
@@ -23704,7 +23710,7 @@
         <v>37.70000000000016</v>
       </c>
       <c r="K456" t="n">
-        <v>4.761904761904725</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L456" t="n">
         <v>14.72</v>
@@ -23755,7 +23761,7 @@
         <v>37.70000000000016</v>
       </c>
       <c r="K457" t="n">
-        <v>9.999999999999929</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L457" t="n">
         <v>14.71</v>
@@ -23806,7 +23812,7 @@
         <v>37.70000000000016</v>
       </c>
       <c r="K458" t="n">
-        <v>9.999999999999929</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L458" t="n">
         <v>14.69</v>
@@ -23908,7 +23914,7 @@
         <v>37.90000000000016</v>
       </c>
       <c r="K460" t="n">
-        <v>5.882352941176391</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L460" t="n">
         <v>14.67</v>
@@ -24010,7 +24016,7 @@
         <v>38.10000000000016</v>
       </c>
       <c r="K462" t="n">
-        <v>28.57142857142819</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L462" t="n">
         <v>14.68</v>
@@ -24061,7 +24067,7 @@
         <v>38.20000000000017</v>
       </c>
       <c r="K463" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L463" t="n">
         <v>14.69</v>
@@ -24112,7 +24118,7 @@
         <v>38.20000000000017</v>
       </c>
       <c r="K464" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L464" t="n">
         <v>14.68</v>
@@ -24163,7 +24169,7 @@
         <v>38.30000000000017</v>
       </c>
       <c r="K465" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L465" t="n">
         <v>14.68</v>
@@ -24214,7 +24220,7 @@
         <v>38.30000000000017</v>
       </c>
       <c r="K466" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L466" t="n">
         <v>14.7</v>
@@ -24265,7 +24271,7 @@
         <v>38.40000000000017</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L467" t="n">
         <v>14.71</v>
@@ -24316,7 +24322,7 @@
         <v>38.60000000000017</v>
       </c>
       <c r="K468" t="n">
-        <v>6.666666666666549</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L468" t="n">
         <v>14.74</v>
@@ -24367,7 +24373,7 @@
         <v>38.70000000000017</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L469" t="n">
         <v>14.75000000000001</v>
@@ -24418,7 +24424,7 @@
         <v>38.80000000000017</v>
       </c>
       <c r="K470" t="n">
-        <v>12.49999999999989</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L470" t="n">
         <v>14.78000000000001</v>
@@ -24469,7 +24475,7 @@
         <v>38.80000000000017</v>
       </c>
       <c r="K471" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L471" t="n">
         <v>14.80000000000001</v>
@@ -24520,7 +24526,7 @@
         <v>38.90000000000018</v>
       </c>
       <c r="K472" t="n">
-        <v>17.6470588235292</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L472" t="n">
         <v>14.82000000000001</v>
@@ -24571,7 +24577,7 @@
         <v>39.20000000000017</v>
       </c>
       <c r="K473" t="n">
-        <v>36.84210526315756</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L473" t="n">
         <v>14.88000000000001</v>
@@ -24622,7 +24628,7 @@
         <v>39.20000000000017</v>
       </c>
       <c r="K474" t="n">
-        <v>29.41176470588206</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L474" t="n">
         <v>14.94000000000001</v>
@@ -24673,7 +24679,7 @@
         <v>39.20000000000017</v>
       </c>
       <c r="K475" t="n">
-        <v>29.41176470588206</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L475" t="n">
         <v>14.99000000000001</v>
@@ -24724,7 +24730,7 @@
         <v>39.20000000000017</v>
       </c>
       <c r="K476" t="n">
-        <v>46.66666666666629</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L476" t="n">
         <v>15.04000000000001</v>
@@ -24775,7 +24781,7 @@
         <v>39.60000000000017</v>
       </c>
       <c r="K477" t="n">
-        <v>15.78947368421046</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>15.06000000000001</v>
@@ -24826,7 +24832,7 @@
         <v>39.60000000000017</v>
       </c>
       <c r="K478" t="n">
-        <v>15.78947368421046</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L478" t="n">
         <v>15.06000000000001</v>
@@ -24877,7 +24883,7 @@
         <v>40.10000000000017</v>
       </c>
       <c r="K479" t="n">
-        <v>30.43478260869555</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L479" t="n">
         <v>15.12000000000001</v>
@@ -24928,7 +24934,7 @@
         <v>40.10000000000017</v>
       </c>
       <c r="K480" t="n">
-        <v>36.36363636363623</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L480" t="n">
         <v>15.17000000000001</v>
@@ -24979,7 +24985,7 @@
         <v>40.30000000000017</v>
       </c>
       <c r="K481" t="n">
-        <v>21.7391304347825</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L481" t="n">
         <v>15.20000000000001</v>
@@ -25030,7 +25036,7 @@
         <v>40.30000000000017</v>
       </c>
       <c r="K482" t="n">
-        <v>18.18181818181803</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L482" t="n">
         <v>15.22000000000001</v>
@@ -25081,7 +25087,7 @@
         <v>40.50000000000017</v>
       </c>
       <c r="K483" t="n">
-        <v>13.04347826086957</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L483" t="n">
         <v>15.19000000000001</v>
@@ -25132,7 +25138,7 @@
         <v>40.50000000000017</v>
       </c>
       <c r="K484" t="n">
-        <v>13.04347826086957</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L484" t="n">
         <v>15.16000000000001</v>
@@ -25183,7 +25189,7 @@
         <v>40.60000000000017</v>
       </c>
       <c r="K485" t="n">
-        <v>4.347826086956498</v>
+        <v>-28.57142857142863</v>
       </c>
       <c r="L485" t="n">
         <v>15.12000000000001</v>
@@ -25234,7 +25240,7 @@
         <v>40.70000000000017</v>
       </c>
       <c r="K486" t="n">
-        <v>8.333333333333284</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L486" t="n">
         <v>15.09000000000001</v>
@@ -25285,7 +25291,7 @@
         <v>40.70000000000017</v>
       </c>
       <c r="K487" t="n">
-        <v>13.04347826086957</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L487" t="n">
         <v>15.1</v>
@@ -25336,7 +25342,7 @@
         <v>40.80000000000017</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L488" t="n">
         <v>15.1</v>
@@ -25387,7 +25393,7 @@
         <v>40.80000000000017</v>
       </c>
       <c r="K489" t="n">
-        <v>4.761904761904741</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L489" t="n">
         <v>15.05000000000001</v>
@@ -25438,7 +25444,7 @@
         <v>40.80000000000017</v>
       </c>
       <c r="K490" t="n">
-        <v>0</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L490" t="n">
         <v>15.00000000000001</v>
@@ -25489,7 +25495,7 @@
         <v>40.90000000000018</v>
       </c>
       <c r="K491" t="n">
-        <v>-4.761904761904741</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L491" t="n">
         <v>14.96000000000001</v>
@@ -25540,7 +25546,7 @@
         <v>41.00000000000018</v>
       </c>
       <c r="K492" t="n">
-        <v>-4.761904761904741</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L492" t="n">
         <v>14.93000000000001</v>
@@ -25591,7 +25597,7 @@
         <v>41.10000000000018</v>
       </c>
       <c r="K493" t="n">
-        <v>-15.78947368421052</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>14.93000000000001</v>
@@ -25642,7 +25648,7 @@
         <v>41.10000000000018</v>
       </c>
       <c r="K494" t="n">
-        <v>-15.78947368421052</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L494" t="n">
         <v>14.93000000000001</v>
@@ -25693,7 +25699,7 @@
         <v>41.20000000000018</v>
       </c>
       <c r="K495" t="n">
-        <v>-19.99999999999995</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L495" t="n">
         <v>14.93000000000001</v>
@@ -25744,7 +25750,7 @@
         <v>41.30000000000018</v>
       </c>
       <c r="K496" t="n">
-        <v>-14.28571428571426</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>14.93000000000001</v>
@@ -25795,7 +25801,7 @@
         <v>41.30000000000018</v>
       </c>
       <c r="K497" t="n">
-        <v>5.882352941176415</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L497" t="n">
         <v>14.93000000000001</v>
@@ -25846,7 +25852,7 @@
         <v>41.50000000000018</v>
       </c>
       <c r="K498" t="n">
-        <v>-5.263157894736787</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L498" t="n">
         <v>14.92000000000001</v>
@@ -25897,7 +25903,7 @@
         <v>41.60000000000019</v>
       </c>
       <c r="K499" t="n">
-        <v>-46.66666666666629</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L499" t="n">
         <v>14.90000000000001</v>
@@ -25948,7 +25954,7 @@
         <v>41.70000000000019</v>
       </c>
       <c r="K500" t="n">
-        <v>-37.49999999999961</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>14.89000000000001</v>
@@ -25999,7 +26005,7 @@
         <v>41.80000000000019</v>
       </c>
       <c r="K501" t="n">
-        <v>-19.99999999999974</v>
+        <v>0</v>
       </c>
       <c r="L501" t="n">
         <v>14.90000000000001</v>
@@ -26050,7 +26056,7 @@
         <v>41.90000000000019</v>
       </c>
       <c r="K502" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>14.91000000000001</v>
@@ -26152,7 +26158,7 @@
         <v>42.00000000000019</v>
       </c>
       <c r="K504" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>14.90000000000001</v>
@@ -26203,7 +26209,7 @@
         <v>42.10000000000019</v>
       </c>
       <c r="K505" t="n">
-        <v>6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>14.91000000000001</v>
@@ -26254,7 +26260,7 @@
         <v>42.20000000000019</v>
       </c>
       <c r="K506" t="n">
-        <v>-6.666666666666549</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L506" t="n">
         <v>14.90000000000001</v>
@@ -26305,7 +26311,7 @@
         <v>42.3000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L507" t="n">
         <v>14.90000000000001</v>
@@ -26356,7 +26362,7 @@
         <v>42.4000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L508" t="n">
         <v>14.91000000000001</v>
@@ -26407,7 +26413,7 @@
         <v>42.5000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>5.882352941176366</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L509" t="n">
         <v>14.94000000000001</v>
@@ -26509,7 +26515,7 @@
         <v>42.7000000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>14.96000000000001</v>
@@ -26560,7 +26566,7 @@
         <v>42.7000000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>5.882352941176366</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>14.96000000000001</v>
@@ -26662,7 +26668,7 @@
         <v>43.00000000000021</v>
       </c>
       <c r="K514" t="n">
-        <v>-5.263157894736749</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L514" t="n">
         <v>14.94000000000001</v>
@@ -26713,7 +26719,7 @@
         <v>43.20000000000021</v>
       </c>
       <c r="K515" t="n">
-        <v>-9.999999999999911</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L515" t="n">
         <v>14.91000000000001</v>
@@ -26764,7 +26770,7 @@
         <v>43.30000000000021</v>
       </c>
       <c r="K516" t="n">
-        <v>-9.999999999999822</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L516" t="n">
         <v>14.90000000000001</v>
@@ -26815,7 +26821,7 @@
         <v>43.40000000000021</v>
       </c>
       <c r="K517" t="n">
-        <v>-14.28571428571412</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L517" t="n">
         <v>14.87000000000001</v>
@@ -26866,7 +26872,7 @@
         <v>43.40000000000021</v>
       </c>
       <c r="K518" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L518" t="n">
         <v>14.85</v>
@@ -26917,7 +26923,7 @@
         <v>43.50000000000021</v>
       </c>
       <c r="K519" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L519" t="n">
         <v>14.83000000000001</v>
@@ -26968,7 +26974,7 @@
         <v>43.70000000000022</v>
       </c>
       <c r="K520" t="n">
-        <v>-9.999999999999911</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L520" t="n">
         <v>14.80000000000001</v>
@@ -27019,7 +27025,7 @@
         <v>43.70000000000022</v>
       </c>
       <c r="K521" t="n">
-        <v>-15.78947368421034</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L521" t="n">
         <v>14.76000000000001</v>
@@ -27070,7 +27076,7 @@
         <v>43.70000000000022</v>
       </c>
       <c r="K522" t="n">
-        <v>-22.22222222222193</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L522" t="n">
         <v>14.72</v>
@@ -27121,7 +27127,7 @@
         <v>43.80000000000022</v>
       </c>
       <c r="K523" t="n">
-        <v>-15.78947368421034</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L523" t="n">
         <v>14.71</v>
@@ -27172,7 +27178,7 @@
         <v>43.80000000000022</v>
       </c>
       <c r="K524" t="n">
-        <v>-11.11111111111101</v>
+        <v>0</v>
       </c>
       <c r="L524" t="n">
         <v>14.69</v>
@@ -27223,7 +27229,7 @@
         <v>43.90000000000022</v>
       </c>
       <c r="K525" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>14.7</v>
@@ -27274,7 +27280,7 @@
         <v>43.90000000000022</v>
       </c>
       <c r="K526" t="n">
-        <v>-5.882352941176366</v>
+        <v>20</v>
       </c>
       <c r="L526" t="n">
         <v>14.7</v>
@@ -27325,7 +27331,7 @@
         <v>44.00000000000022</v>
       </c>
       <c r="K527" t="n">
-        <v>-17.6470588235292</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>14.7</v>
@@ -27376,7 +27382,7 @@
         <v>44.10000000000022</v>
       </c>
       <c r="K528" t="n">
-        <v>-5.882352941176366</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>14.71</v>
@@ -27427,7 +27433,7 @@
         <v>44.10000000000022</v>
       </c>
       <c r="K529" t="n">
-        <v>-12.49999999999978</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L529" t="n">
         <v>14.71</v>
@@ -27478,7 +27484,7 @@
         <v>44.20000000000022</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L530" t="n">
         <v>14.74000000000001</v>
@@ -27529,7 +27535,7 @@
         <v>44.50000000000023</v>
       </c>
       <c r="K531" t="n">
-        <v>-22.22222222222193</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>14.74000000000001</v>
@@ -27580,7 +27586,7 @@
         <v>44.80000000000022</v>
       </c>
       <c r="K532" t="n">
-        <v>-4.761904761904693</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L532" t="n">
         <v>14.77000000000001</v>
@@ -27631,7 +27637,7 @@
         <v>44.80000000000022</v>
       </c>
       <c r="K533" t="n">
-        <v>5.263157894736768</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L533" t="n">
         <v>14.79000000000001</v>
@@ -27682,7 +27688,7 @@
         <v>45.00000000000023</v>
       </c>
       <c r="K534" t="n">
-        <v>-9.999999999999947</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L534" t="n">
         <v>14.79000000000001</v>
@@ -27733,7 +27739,7 @@
         <v>45.10000000000023</v>
       </c>
       <c r="K535" t="n">
-        <v>-5.263157894736768</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L535" t="n">
         <v>14.77000000000001</v>
@@ -27784,7 +27790,7 @@
         <v>45.20000000000023</v>
       </c>
       <c r="K536" t="n">
-        <v>-5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L536" t="n">
         <v>14.76000000000001</v>
@@ -27835,7 +27841,7 @@
         <v>45.20000000000023</v>
       </c>
       <c r="K537" t="n">
-        <v>0</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L537" t="n">
         <v>14.76000000000001</v>
@@ -27886,7 +27892,7 @@
         <v>45.30000000000023</v>
       </c>
       <c r="K538" t="n">
-        <v>5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>14.76000000000001</v>
@@ -27937,7 +27943,7 @@
         <v>45.40000000000023</v>
       </c>
       <c r="K539" t="n">
-        <v>-5.263157894736862</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L539" t="n">
         <v>14.75</v>
@@ -27988,7 +27994,7 @@
         <v>45.40000000000023</v>
       </c>
       <c r="K540" t="n">
-        <v>5.882352941176391</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L540" t="n">
         <v>14.73</v>
@@ -28039,7 +28045,7 @@
         <v>45.50000000000023</v>
       </c>
       <c r="K541" t="n">
-        <v>11.11111111111106</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L541" t="n">
         <v>14.75</v>
@@ -28090,7 +28096,7 @@
         <v>45.60000000000024</v>
       </c>
       <c r="K542" t="n">
-        <v>5.263157894736768</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L542" t="n">
         <v>14.73</v>
@@ -28192,7 +28198,7 @@
         <v>45.60000000000024</v>
       </c>
       <c r="K544" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L544" t="n">
         <v>14.71</v>
@@ -28243,7 +28249,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L545" t="n">
         <v>14.73</v>
@@ -28294,7 +28300,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L546" t="n">
         <v>14.74</v>
@@ -28345,7 +28351,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K547" t="n">
-        <v>5.882352941176496</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>14.75000000000001</v>
@@ -28396,7 +28402,7 @@
         <v>45.90000000000024</v>
       </c>
       <c r="K548" t="n">
-        <v>-11.11111111111106</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L548" t="n">
         <v>14.73</v>
@@ -28447,7 +28453,7 @@
         <v>46.00000000000024</v>
       </c>
       <c r="K549" t="n">
-        <v>-15.7894736842104</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L549" t="n">
         <v>14.71</v>
@@ -28498,7 +28504,7 @@
         <v>46.10000000000024</v>
       </c>
       <c r="K550" t="n">
-        <v>-15.7894736842104</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L550" t="n">
         <v>14.70000000000001</v>
@@ -28549,7 +28555,7 @@
         <v>46.10000000000024</v>
       </c>
       <c r="K551" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L551" t="n">
         <v>14.68</v>
@@ -28600,7 +28606,7 @@
         <v>46.20000000000024</v>
       </c>
       <c r="K552" t="n">
-        <v>-14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>14.68</v>
@@ -28651,7 +28657,7 @@
         <v>46.20000000000024</v>
       </c>
       <c r="K553" t="n">
-        <v>-14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>14.68</v>
@@ -28702,7 +28708,7 @@
         <v>46.30000000000025</v>
       </c>
       <c r="K554" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>14.69000000000001</v>
@@ -28753,7 +28759,7 @@
         <v>46.50000000000024</v>
       </c>
       <c r="K555" t="n">
-        <v>28.57142857142833</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L555" t="n">
         <v>14.71</v>
@@ -28804,7 +28810,7 @@
         <v>46.50000000000024</v>
       </c>
       <c r="K556" t="n">
-        <v>23.07692307692293</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L556" t="n">
         <v>14.73</v>
@@ -28855,7 +28861,7 @@
         <v>46.50000000000024</v>
       </c>
       <c r="K557" t="n">
-        <v>23.07692307692293</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L557" t="n">
         <v>14.75</v>
@@ -28906,7 +28912,7 @@
         <v>46.70000000000024</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L558" t="n">
         <v>14.77</v>
@@ -28957,7 +28963,7 @@
         <v>46.80000000000025</v>
       </c>
       <c r="K559" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L559" t="n">
         <v>14.79</v>
@@ -29008,7 +29014,7 @@
         <v>46.90000000000025</v>
       </c>
       <c r="K560" t="n">
-        <v>6.666666666666698</v>
+        <v>25</v>
       </c>
       <c r="L560" t="n">
         <v>14.81000000000001</v>
@@ -29059,7 +29065,7 @@
         <v>46.90000000000025</v>
       </c>
       <c r="K561" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L561" t="n">
         <v>14.83000000000001</v>
@@ -29110,7 +29116,7 @@
         <v>46.90000000000025</v>
       </c>
       <c r="K562" t="n">
-        <v>7.692307692307734</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L562" t="n">
         <v>14.84000000000001</v>
@@ -29161,7 +29167,7 @@
         <v>47.00000000000025</v>
       </c>
       <c r="K563" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L563" t="n">
         <v>14.84000000000001</v>
@@ -29212,7 +29218,7 @@
         <v>47.10000000000025</v>
       </c>
       <c r="K564" t="n">
-        <v>6.666666666666698</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L564" t="n">
         <v>14.84000000000001</v>
@@ -29263,7 +29269,7 @@
         <v>47.10000000000025</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L565" t="n">
         <v>14.82000000000001</v>
@@ -29314,7 +29320,7 @@
         <v>47.10000000000025</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L566" t="n">
         <v>14.80000000000001</v>
@@ -29416,7 +29422,7 @@
         <v>47.10000000000025</v>
       </c>
       <c r="K568" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L568" t="n">
         <v>14.78000000000001</v>
@@ -29467,7 +29473,7 @@
         <v>47.20000000000025</v>
       </c>
       <c r="K569" t="n">
-        <v>16.66666666666647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L569" t="n">
         <v>14.78000000000001</v>
@@ -29518,7 +29524,7 @@
         <v>47.30000000000025</v>
       </c>
       <c r="K570" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>14.78000000000001</v>
@@ -29569,7 +29575,7 @@
         <v>47.70000000000025</v>
       </c>
       <c r="K571" t="n">
-        <v>-12.49999999999989</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L571" t="n">
         <v>14.74000000000001</v>
@@ -29620,7 +29626,7 @@
         <v>47.70000000000025</v>
       </c>
       <c r="K572" t="n">
-        <v>-19.99999999999983</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L572" t="n">
         <v>14.70000000000001</v>
@@ -29671,7 +29677,7 @@
         <v>47.90000000000025</v>
       </c>
       <c r="K573" t="n">
-        <v>-5.88235294117644</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L573" t="n">
         <v>14.69000000000001</v>
@@ -29722,7 +29728,7 @@
         <v>47.90000000000025</v>
       </c>
       <c r="K574" t="n">
-        <v>-12.50000000000006</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L574" t="n">
         <v>14.67000000000001</v>
@@ -29773,7 +29779,7 @@
         <v>48.00000000000025</v>
       </c>
       <c r="K575" t="n">
-        <v>-19.99999999999995</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L575" t="n">
         <v>14.66000000000001</v>
@@ -29824,7 +29830,7 @@
         <v>48.10000000000025</v>
       </c>
       <c r="K576" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>14.66000000000001</v>
@@ -29875,7 +29881,7 @@
         <v>48.10000000000025</v>
       </c>
       <c r="K577" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>14.66000000000001</v>
@@ -29926,7 +29932,7 @@
         <v>48.10000000000025</v>
       </c>
       <c r="K578" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L578" t="n">
         <v>14.66000000000001</v>
@@ -29977,7 +29983,7 @@
         <v>48.10000000000025</v>
       </c>
       <c r="K579" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>14.67000000000001</v>
@@ -30028,7 +30034,7 @@
         <v>48.50000000000025</v>
       </c>
       <c r="K580" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>14.63000000000001</v>
@@ -30079,7 +30085,7 @@
         <v>48.80000000000025</v>
       </c>
       <c r="K581" t="n">
-        <v>-5.263157894736921</v>
+        <v>27.27272727272732</v>
       </c>
       <c r="L581" t="n">
         <v>14.66000000000001</v>
@@ -30130,7 +30136,7 @@
         <v>48.80000000000025</v>
       </c>
       <c r="K582" t="n">
-        <v>-5.263157894736921</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L582" t="n">
         <v>14.69000000000001</v>
@@ -30181,7 +30187,7 @@
         <v>48.90000000000025</v>
       </c>
       <c r="K583" t="n">
-        <v>5.263157894736921</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L583" t="n">
         <v>14.71000000000001</v>
@@ -30232,7 +30238,7 @@
         <v>48.90000000000025</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L584" t="n">
         <v>14.73000000000001</v>
@@ -30283,7 +30289,7 @@
         <v>49.10000000000025</v>
       </c>
       <c r="K585" t="n">
-        <v>-10.00000000000005</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L585" t="n">
         <v>14.72000000000001</v>
@@ -30334,7 +30340,7 @@
         <v>49.10000000000025</v>
       </c>
       <c r="K586" t="n">
-        <v>-10.00000000000005</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L586" t="n">
         <v>14.70000000000001</v>
@@ -30385,7 +30391,7 @@
         <v>49.10000000000025</v>
       </c>
       <c r="K587" t="n">
-        <v>-10.00000000000005</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L587" t="n">
         <v>14.68000000000001</v>
@@ -30436,7 +30442,7 @@
         <v>49.40000000000025</v>
       </c>
       <c r="K588" t="n">
-        <v>-21.73913043478263</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L588" t="n">
         <v>14.63000000000001</v>
@@ -30487,7 +30493,7 @@
         <v>49.50000000000025</v>
       </c>
       <c r="K589" t="n">
-        <v>-13.04347826086953</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>14.59000000000001</v>
@@ -30538,7 +30544,7 @@
         <v>49.80000000000025</v>
       </c>
       <c r="K590" t="n">
-        <v>-4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>14.62</v>
@@ -30589,7 +30595,7 @@
         <v>49.90000000000025</v>
       </c>
       <c r="K591" t="n">
-        <v>18.18181818181823</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L591" t="n">
         <v>14.63000000000001</v>
@@ -30640,7 +30646,7 @@
         <v>49.90000000000025</v>
       </c>
       <c r="K592" t="n">
-        <v>18.18181818181823</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>14.64000000000001</v>
@@ -30691,7 +30697,7 @@
         <v>50.40000000000025</v>
       </c>
       <c r="K593" t="n">
-        <v>-11.99999999999996</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L593" t="n">
         <v>14.59000000000001</v>
@@ -30742,7 +30748,7 @@
         <v>50.80000000000025</v>
       </c>
       <c r="K594" t="n">
-        <v>3.448275862068955</v>
+        <v>5.882352941176464</v>
       </c>
       <c r="L594" t="n">
         <v>14.58000000000001</v>
@@ -30793,7 +30799,7 @@
         <v>50.90000000000025</v>
       </c>
       <c r="K595" t="n">
-        <v>3.448275862069016</v>
+        <v>11.11111111111119</v>
       </c>
       <c r="L595" t="n">
         <v>14.60000000000001</v>
@@ -30844,7 +30850,7 @@
         <v>50.90000000000025</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>11.11111111111119</v>
       </c>
       <c r="L596" t="n">
         <v>14.62000000000001</v>
@@ -30895,7 +30901,7 @@
         <v>51.00000000000025</v>
       </c>
       <c r="K597" t="n">
-        <v>-3.448275862069016</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L597" t="n">
         <v>14.63000000000001</v>
@@ -30946,7 +30952,7 @@
         <v>51.00000000000025</v>
       </c>
       <c r="K598" t="n">
-        <v>-3.448275862069016</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L598" t="n">
         <v>14.67000000000001</v>
@@ -30997,7 +31003,7 @@
         <v>51.00000000000025</v>
       </c>
       <c r="K599" t="n">
-        <v>-3.448275862069016</v>
+        <v>0</v>
       </c>
       <c r="L599" t="n">
         <v>14.70000000000001</v>
@@ -31048,7 +31054,7 @@
         <v>51.40000000000025</v>
       </c>
       <c r="K600" t="n">
-        <v>-3.448275862068955</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L600" t="n">
         <v>14.66000000000001</v>
@@ -31099,7 +31105,7 @@
         <v>51.50000000000025</v>
       </c>
       <c r="K601" t="n">
-        <v>-18.5185185185185</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L601" t="n">
         <v>14.6</v>
@@ -31150,7 +31156,7 @@
         <v>51.60000000000025</v>
       </c>
       <c r="K602" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>14.55000000000001</v>
@@ -31201,7 +31207,7 @@
         <v>51.90000000000025</v>
       </c>
       <c r="K603" t="n">
-        <v>-6.666666666666702</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L603" t="n">
         <v>14.58</v>
@@ -31252,7 +31258,7 @@
         <v>52.00000000000025</v>
       </c>
       <c r="K604" t="n">
-        <v>-9.67741935483873</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L604" t="n">
         <v>14.56000000000001</v>
@@ -31303,7 +31309,7 @@
         <v>52.00000000000025</v>
       </c>
       <c r="K605" t="n">
-        <v>-3.448275862068955</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L605" t="n">
         <v>14.53</v>
@@ -31354,7 +31360,7 @@
         <v>52.30000000000025</v>
       </c>
       <c r="K606" t="n">
-        <v>-12.5</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L606" t="n">
         <v>14.47</v>
@@ -31405,7 +31411,7 @@
         <v>52.80000000000025</v>
       </c>
       <c r="K607" t="n">
-        <v>2.702702702702691</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>14.47</v>
@@ -31456,7 +31462,7 @@
         <v>53.30000000000025</v>
       </c>
       <c r="K608" t="n">
-        <v>-2.564102564102597</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L608" t="n">
         <v>14.42</v>
@@ -31507,7 +31513,7 @@
         <v>53.80000000000025</v>
       </c>
       <c r="K609" t="n">
-        <v>6.97674418604648</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L609" t="n">
         <v>14.42</v>
@@ -31558,7 +31564,7 @@
         <v>53.80000000000025</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L610" t="n">
         <v>14.46</v>
@@ -31609,7 +31615,7 @@
         <v>53.80000000000025</v>
       </c>
       <c r="K611" t="n">
-        <v>-2.564102564102597</v>
+        <v>18.18181818181809</v>
       </c>
       <c r="L611" t="n">
         <v>14.51</v>
@@ -31660,7 +31666,7 @@
         <v>53.90000000000025</v>
       </c>
       <c r="K612" t="n">
-        <v>0</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L612" t="n">
         <v>14.56</v>
@@ -31711,7 +31717,7 @@
         <v>54.00000000000026</v>
       </c>
       <c r="K613" t="n">
-        <v>11.11111111111104</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L613" t="n">
         <v>14.57</v>
@@ -31762,7 +31768,7 @@
         <v>54.00000000000026</v>
       </c>
       <c r="K614" t="n">
-        <v>0</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L614" t="n">
         <v>14.59</v>
@@ -31813,7 +31819,7 @@
         <v>54.10000000000026</v>
       </c>
       <c r="K615" t="n">
-        <v>-6.250000000000014</v>
+        <v>22.22222222222219</v>
       </c>
       <c r="L615" t="n">
         <v>14.6</v>
@@ -31864,7 +31870,7 @@
         <v>54.30000000000026</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L616" t="n">
         <v>14.66</v>
@@ -31915,7 +31921,7 @@
         <v>54.30000000000026</v>
       </c>
       <c r="K617" t="n">
-        <v>3.030303030303063</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L617" t="n">
         <v>14.67</v>
@@ -32017,7 +32023,7 @@
         <v>54.50000000000026</v>
       </c>
       <c r="K619" t="n">
-        <v>2.857142857142886</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L619" t="n">
         <v>14.73</v>
@@ -32068,7 +32074,7 @@
         <v>54.70000000000027</v>
       </c>
       <c r="K620" t="n">
-        <v>9.090909090909008</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L620" t="n">
         <v>14.72</v>
@@ -32119,7 +32125,7 @@
         <v>55.00000000000026</v>
       </c>
       <c r="K621" t="n">
-        <v>2.857142857142886</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L621" t="n">
         <v>14.68000000000001</v>
@@ -32170,7 +32176,7 @@
         <v>55.10000000000026</v>
       </c>
       <c r="K622" t="n">
-        <v>2.857142857142835</v>
+        <v>-27.27272727272696</v>
       </c>
       <c r="L622" t="n">
         <v>14.64000000000001</v>
@@ -32221,7 +32227,7 @@
         <v>55.20000000000027</v>
       </c>
       <c r="K623" t="n">
-        <v>-3.030303030303003</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L623" t="n">
         <v>14.62000000000001</v>
@@ -32272,7 +32278,7 @@
         <v>55.40000000000026</v>
       </c>
       <c r="K624" t="n">
-        <v>-5.882352941176427</v>
+        <v>-23.07692307692292</v>
       </c>
       <c r="L624" t="n">
         <v>14.58000000000001</v>
@@ -32323,7 +32329,7 @@
         <v>55.70000000000026</v>
       </c>
       <c r="K625" t="n">
-        <v>2.702702702702686</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L625" t="n">
         <v>14.58000000000001</v>
@@ -32374,7 +32380,7 @@
         <v>55.70000000000026</v>
       </c>
       <c r="K626" t="n">
-        <v>11.76470588235293</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L626" t="n">
         <v>14.56000000000001</v>
@@ -32425,7 +32431,7 @@
         <v>55.80000000000026</v>
       </c>
       <c r="K627" t="n">
-        <v>-6.666666666666628</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L627" t="n">
         <v>14.53000000000001</v>
@@ -32476,7 +32482,7 @@
         <v>55.80000000000026</v>
       </c>
       <c r="K628" t="n">
-        <v>11.99999999999999</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L628" t="n">
         <v>14.51000000000001</v>
@@ -32527,7 +32533,7 @@
         <v>55.80000000000026</v>
       </c>
       <c r="K629" t="n">
-        <v>-9.999999999999929</v>
+        <v>-9.090909090909104</v>
       </c>
       <c r="L629" t="n">
         <v>14.48000000000001</v>
@@ -32578,7 +32584,7 @@
         <v>55.90000000000026</v>
       </c>
       <c r="K630" t="n">
-        <v>-4.761904761904725</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L630" t="n">
         <v>14.48000000000001</v>
@@ -32629,7 +32635,7 @@
         <v>56.20000000000026</v>
       </c>
       <c r="K631" t="n">
-        <v>-16.66666666666657</v>
+        <v>-9.090909090909104</v>
       </c>
       <c r="L631" t="n">
         <v>14.48000000000001</v>
@@ -32680,7 +32686,7 @@
         <v>56.50000000000026</v>
       </c>
       <c r="K632" t="n">
-        <v>-7.692307692307729</v>
+        <v>7.692307692307724</v>
       </c>
       <c r="L632" t="n">
         <v>14.50000000000001</v>
@@ -32731,7 +32737,7 @@
         <v>56.60000000000026</v>
       </c>
       <c r="K633" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L633" t="n">
         <v>14.52</v>
@@ -32782,7 +32788,7 @@
         <v>56.60000000000026</v>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L634" t="n">
         <v>14.56</v>
@@ -32833,7 +32839,7 @@
         <v>56.60000000000026</v>
       </c>
       <c r="K635" t="n">
-        <v>3.999999999999985</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L635" t="n">
         <v>14.57</v>
@@ -32884,7 +32890,7 @@
         <v>57.00000000000026</v>
       </c>
       <c r="K636" t="n">
-        <v>-18.51851851851855</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L636" t="n">
         <v>14.54</v>
@@ -32935,7 +32941,7 @@
         <v>57.40000000000025</v>
       </c>
       <c r="K637" t="n">
-        <v>-3.225806451612955</v>
+        <v>12.5</v>
       </c>
       <c r="L637" t="n">
         <v>14.56</v>
@@ -32986,7 +32992,7 @@
         <v>57.80000000000025</v>
       </c>
       <c r="K638" t="n">
-        <v>-11.76470588235293</v>
+        <v>-10</v>
       </c>
       <c r="L638" t="n">
         <v>14.54</v>
@@ -33037,7 +33043,7 @@
         <v>58.10000000000025</v>
       </c>
       <c r="K639" t="n">
-        <v>-5.555555555555605</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>14.55</v>
@@ -33088,7 +33094,7 @@
         <v>58.40000000000025</v>
       </c>
       <c r="K640" t="n">
-        <v>-8.108108108108119</v>
+        <v>0</v>
       </c>
       <c r="L640" t="n">
         <v>14.52</v>
@@ -33139,7 +33145,7 @@
         <v>58.70000000000024</v>
       </c>
       <c r="K641" t="n">
-        <v>8.108108108108119</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>14.55</v>
@@ -33190,7 +33196,7 @@
         <v>58.70000000000024</v>
       </c>
       <c r="K642" t="n">
-        <v>5.555555555555566</v>
+        <v>-4.761904761904774</v>
       </c>
       <c r="L642" t="n">
         <v>14.55</v>
@@ -33241,7 +33247,7 @@
         <v>59.10000000000024</v>
       </c>
       <c r="K643" t="n">
-        <v>-7.692307692307756</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L643" t="n">
         <v>14.5</v>
@@ -33292,7 +33298,7 @@
         <v>59.10000000000024</v>
       </c>
       <c r="K644" t="n">
-        <v>-2.702702702702755</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L644" t="n">
         <v>14.45</v>
@@ -33343,7 +33349,7 @@
         <v>59.10000000000024</v>
       </c>
       <c r="K645" t="n">
-        <v>-11.76470588235301</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L645" t="n">
         <v>14.4</v>
@@ -33394,7 +33400,7 @@
         <v>59.40000000000025</v>
       </c>
       <c r="K646" t="n">
-        <v>-2.702702702702701</v>
+        <v>-10</v>
       </c>
       <c r="L646" t="n">
         <v>14.42</v>
@@ -33445,7 +33451,7 @@
         <v>59.70000000000024</v>
       </c>
       <c r="K647" t="n">
-        <v>-7.692307692307741</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L647" t="n">
         <v>14.37</v>
@@ -33496,7 +33502,7 @@
         <v>59.90000000000025</v>
       </c>
       <c r="K648" t="n">
-        <v>-2.439024390243901</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L648" t="n">
         <v>14.38</v>
@@ -33547,7 +33553,7 @@
         <v>60.00000000000025</v>
       </c>
       <c r="K649" t="n">
-        <v>0</v>
+        <v>12.49999999999994</v>
       </c>
       <c r="L649" t="n">
         <v>14.37</v>
@@ -33598,7 +33604,7 @@
         <v>60.30000000000025</v>
       </c>
       <c r="K650" t="n">
-        <v>-9.090909090909117</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L650" t="n">
         <v>14.36</v>
@@ -33649,7 +33655,7 @@
         <v>60.60000000000025</v>
       </c>
       <c r="K651" t="n">
-        <v>4.545454545454538</v>
+        <v>-5.263157894736808</v>
       </c>
       <c r="L651" t="n">
         <v>14.35</v>
@@ -33700,7 +33706,7 @@
         <v>60.90000000000025</v>
       </c>
       <c r="K652" t="n">
-        <v>-9.090909090909117</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>14.31</v>
@@ -33751,7 +33757,7 @@
         <v>61.10000000000025</v>
       </c>
       <c r="K653" t="n">
-        <v>-6.666666666666654</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L653" t="n">
         <v>14.33</v>
@@ -33802,7 +33808,7 @@
         <v>61.10000000000025</v>
       </c>
       <c r="K654" t="n">
-        <v>-6.666666666666654</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L654" t="n">
         <v>14.35</v>
@@ -33853,7 +33859,7 @@
         <v>61.20000000000025</v>
       </c>
       <c r="K655" t="n">
-        <v>-4.347826086956512</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>14.38</v>
@@ -33904,7 +33910,7 @@
         <v>61.50000000000026</v>
       </c>
       <c r="K656" t="n">
-        <v>-2.222222222222254</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>14.35</v>
@@ -33955,7 +33961,7 @@
         <v>61.70000000000026</v>
       </c>
       <c r="K657" t="n">
-        <v>-6.97674418604648</v>
+        <v>0</v>
       </c>
       <c r="L657" t="n">
         <v>14.37</v>
@@ -34006,7 +34012,7 @@
         <v>61.80000000000026</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L658" t="n">
         <v>14.36</v>
@@ -34057,7 +34063,7 @@
         <v>61.80000000000026</v>
       </c>
       <c r="K659" t="n">
-        <v>-8.108108108108057</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L659" t="n">
         <v>14.34000000000001</v>
@@ -34108,7 +34114,7 @@
         <v>61.90000000000026</v>
       </c>
       <c r="K660" t="n">
-        <v>-2.857142857142886</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L660" t="n">
         <v>14.34000000000001</v>
@@ -34159,7 +34165,7 @@
         <v>62.10000000000026</v>
       </c>
       <c r="K661" t="n">
-        <v>-5.882352941176415</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L661" t="n">
         <v>14.33000000000001</v>
@@ -34210,7 +34216,7 @@
         <v>62.30000000000027</v>
       </c>
       <c r="K662" t="n">
-        <v>-11.11111111111105</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L662" t="n">
         <v>14.33000000000001</v>
@@ -34261,7 +34267,7 @@
         <v>62.50000000000027</v>
       </c>
       <c r="K663" t="n">
-        <v>5.882352941176455</v>
+        <v>0</v>
       </c>
       <c r="L663" t="n">
         <v>14.33000000000001</v>
@@ -34312,7 +34318,7 @@
         <v>62.50000000000027</v>
       </c>
       <c r="K664" t="n">
-        <v>5.882352941176455</v>
+        <v>-7.692307692307556</v>
       </c>
       <c r="L664" t="n">
         <v>14.33000000000001</v>
@@ -34363,7 +34369,7 @@
         <v>62.80000000000027</v>
       </c>
       <c r="K665" t="n">
-        <v>-2.702702702702676</v>
+        <v>-7.692307692307598</v>
       </c>
       <c r="L665" t="n">
         <v>14.29000000000001</v>
@@ -34414,7 +34420,7 @@
         <v>62.80000000000027</v>
       </c>
       <c r="K666" t="n">
-        <v>-11.76470588235288</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L666" t="n">
         <v>14.28000000000001</v>
@@ -34465,7 +34471,7 @@
         <v>63.00000000000027</v>
       </c>
       <c r="K667" t="n">
-        <v>3.03030303030305</v>
+        <v>0</v>
       </c>
       <c r="L667" t="n">
         <v>14.27000000000001</v>
@@ -34516,7 +34522,7 @@
         <v>63.10000000000027</v>
       </c>
       <c r="K668" t="n">
-        <v>0</v>
+        <v>7.692307692307598</v>
       </c>
       <c r="L668" t="n">
         <v>14.28000000000001</v>
@@ -34567,7 +34573,7 @@
         <v>63.30000000000027</v>
       </c>
       <c r="K669" t="n">
-        <v>-9.090909090909042</v>
+        <v>0</v>
       </c>
       <c r="L669" t="n">
         <v>14.27</v>

--- a/BackTest/2019-10-21 BackTest DVP.xlsx
+++ b/BackTest/2019-10-21 BackTest DVP.xlsx
@@ -626,17 +626,13 @@
         <v>13.87666666666669</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -665,839 +661,709 @@
         <v>13.87500000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>13.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="C9" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E9" t="n">
         <v>13.6</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="F9" t="n">
+        <v>3952.5899</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.87833333333335</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22965.2587</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.87833333333335</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1918.6099</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.87666666666669</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.87166666666669</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16245.7586</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.86500000000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>165.7299</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.86500000000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>76705.7022</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.86166666666669</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27.8832</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.86166666666669</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1507.3295</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13.86166666666669</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24411.0144</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.86500000000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.86833333333335</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.87166666666669</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>46589.1176</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13.87166666666669</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13.87500000000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>130</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13.87500000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3196.931</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.87666666666668</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>13.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.87833333333335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>18146.0198</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.87833333333335</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C27" t="n">
         <v>13.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D27" t="n">
         <v>13.9</v>
       </c>
-      <c r="E9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3952.5899</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.87833333333335</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="E27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11977.4639</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13.88000000000002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22965.2587</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.87833333333335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1918.6099</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.87666666666669</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.87166666666669</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16245.7586</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.86500000000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>165.7299</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.86500000000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>76705.7022</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13.86166666666669</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.8832</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13.86166666666669</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1507.3295</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13.86166666666669</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24411.0144</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13.86500000000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13.86833333333335</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13.87166666666669</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>46589.1176</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13.87166666666669</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13.87500000000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>130</v>
-      </c>
-      <c r="G23" t="n">
-        <v>13.87500000000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3196.931</v>
-      </c>
-      <c r="G24" t="n">
-        <v>13.87666666666668</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>13.87833333333335</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>18146.0198</v>
-      </c>
-      <c r="G26" t="n">
-        <v>13.87833333333335</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C27" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>11977.4639</v>
-      </c>
-      <c r="G27" t="n">
-        <v>13.88000000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1525,16 +1391,14 @@
         <v>13.88333333333335</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
         <v>13.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13.6</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1568,16 +1432,14 @@
         <v>13.88333333333335</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
         <v>13.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>13.6</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1611,16 +1473,14 @@
         <v>13.88666666666668</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1654,16 +1514,14 @@
         <v>13.89000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1697,16 +1555,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1740,16 +1596,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
         <v>13.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>13.6</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1783,16 +1637,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1826,16 +1678,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1869,16 +1719,14 @@
         <v>13.89333333333335</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1912,16 +1760,14 @@
         <v>13.89000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1955,16 +1801,14 @@
         <v>13.88666666666668</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2005,7 +1849,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2046,7 +1890,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2087,7 +1931,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2128,7 +1972,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2169,7 +2013,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2210,7 +2054,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2251,7 +2095,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2292,7 +2136,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2333,7 +2177,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2374,7 +2218,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2415,7 +2259,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2456,7 +2300,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2497,7 +2341,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2534,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>1.016739130434783</v>
       </c>
     </row>
     <row r="53">
@@ -2575,17 +2419,11 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2616,17 +2454,11 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2657,17 +2489,11 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2701,14 +2527,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2562,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2780,17 +2594,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2821,17 +2629,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2862,17 +2664,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2903,17 +2699,11 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2737,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +2772,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2807,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2842,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +2877,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3193,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3017,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3316,14 +3052,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +3087,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3398,14 +3122,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3439,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3480,14 +3192,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3521,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3562,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3297,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3367,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3726,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3437,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3808,14 +3472,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3507,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3542,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3972,14 +3612,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4013,14 +3647,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3682,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3717,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4136,14 +3752,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4218,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4259,14 +3857,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3892,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3927,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4382,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4423,14 +3997,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4464,14 +4032,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4587,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4628,14 +4172,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4669,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4751,14 +4277,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4792,14 +4312,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4347,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4417,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4452,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4997,14 +4487,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5038,14 +4522,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5079,14 +4557,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4592,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4627,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4662,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5322,17 +4764,11 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5363,17 +4799,11 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5407,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5448,14 +4872,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5527,19 +4939,13 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>1.046470588235294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5568,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5603,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5638,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -8543,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -9068,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -11235,14 +10641,20 @@
         <v>14.84</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11277,7 +10689,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +10728,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11347,7 +10767,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11382,7 +10806,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11417,7 +10845,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11452,7 +10884,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11487,7 +10923,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11522,7 +10962,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11557,7 +11001,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11592,7 +11040,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11627,7 +11079,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11662,7 +11118,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11697,7 +11157,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11732,7 +11196,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11767,7 +11235,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +11274,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11837,7 +11313,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +11352,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11907,7 +11391,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11942,7 +11430,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11977,7 +11469,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +11508,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +11547,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12082,7 +11586,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12117,7 +11625,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12152,7 +11664,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +11703,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12222,7 +11742,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12257,7 +11781,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12292,7 +11820,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12327,7 +11859,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12362,7 +11898,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12397,7 +11937,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +11976,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12015,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12502,7 +12054,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12537,7 +12093,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12572,7 +12132,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12607,7 +12171,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12642,7 +12210,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12677,7 +12249,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12712,7 +12288,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12747,7 +12327,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12782,7 +12366,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12817,7 +12405,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12852,7 +12444,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +12483,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12922,7 +12522,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12957,7 +12561,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12992,7 +12600,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +12639,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13062,7 +12678,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13097,7 +12717,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +12756,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +12795,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +12834,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13237,7 +12873,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13272,7 +12912,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13307,7 +12951,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +12990,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13377,7 +13029,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13412,7 +13068,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13447,7 +13107,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13482,7 +13146,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13517,7 +13185,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13552,7 +13224,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13587,7 +13263,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13302,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +13341,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13692,7 +13380,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13727,7 +13419,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13762,7 +13458,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +13497,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13832,7 +13536,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13867,7 +13575,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13902,7 +13614,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13937,7 +13653,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13972,7 +13692,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14007,7 +13731,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14042,7 +13770,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14077,7 +13809,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14112,7 +13848,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14147,7 +13887,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14182,7 +13926,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14217,7 +13965,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14252,7 +14004,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14287,7 +14043,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14322,7 +14082,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14357,7 +14121,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14392,7 +14160,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14427,7 +14199,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14462,7 +14238,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +14277,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14532,7 +14316,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14567,7 +14355,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14602,7 +14394,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14637,7 +14433,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14672,7 +14472,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14707,7 +14511,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14742,7 +14550,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14589,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14812,7 +14628,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14847,7 +14667,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14882,7 +14706,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14917,7 +14745,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14952,7 +14784,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14987,7 +14823,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15022,7 +14862,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15057,7 +14901,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15092,7 +14940,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15127,7 +14979,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15162,7 +15018,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15057,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15232,7 +15096,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +15135,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15302,7 +15174,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15337,7 +15213,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15372,7 +15252,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15407,7 +15291,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15442,7 +15330,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15477,7 +15369,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15512,7 +15408,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15547,7 +15447,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15582,7 +15486,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15617,7 +15525,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +15564,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15687,7 +15603,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15722,7 +15642,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15757,7 +15681,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15792,7 +15720,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15827,7 +15759,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15862,7 +15798,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15897,7 +15837,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +15876,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15967,7 +15915,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16002,7 +15954,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16037,7 +15993,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16072,7 +16032,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16107,7 +16071,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16142,7 +16110,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16177,7 +16149,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16212,7 +16188,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16247,7 +16227,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16282,7 +16266,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16317,7 +16305,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +16344,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16387,7 +16383,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16422,7 +16422,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16457,7 +16461,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +16500,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16527,7 +16539,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16562,7 +16578,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16597,7 +16617,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16632,7 +16656,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16667,7 +16695,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16702,7 +16734,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16737,7 +16773,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16772,7 +16812,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +16851,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16842,7 +16890,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16877,7 +16929,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16912,7 +16968,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16947,7 +17007,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16982,7 +17046,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17017,7 +17085,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17052,7 +17124,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17163,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17122,7 +17202,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17157,7 +17241,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17192,7 +17280,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17227,7 +17319,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17262,7 +17358,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17297,7 +17397,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17332,7 +17436,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17367,7 +17475,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17402,7 +17514,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17437,7 +17553,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17472,7 +17592,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +17631,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17542,7 +17670,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17577,7 +17709,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17612,7 +17748,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17647,7 +17787,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17682,7 +17826,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17717,7 +17865,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17752,7 +17904,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17787,10 +17943,12 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
-      <c r="M475" t="n">
-        <v>1</v>
-      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -18028,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
@@ -18063,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest DVP.xlsx
+++ b/BackTest/2019-10-21 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,11 +781,17 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +820,17 @@
         <v>28016.29801323385</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +859,17 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +898,17 @@
         <v>28016.29801323385</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +937,17 @@
         <v>28016.29801323385</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +976,17 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,7 +1015,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>13.6</v>
@@ -987,7 +1023,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1018,7 +1054,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>13.6</v>
@@ -1057,9 +1093,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1094,9 +1132,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1131,7 +1171,7 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>13.6</v>
@@ -1170,9 +1210,11 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1207,7 +1249,7 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>13.6</v>
@@ -1246,7 +1288,7 @@
         <v>431843.8512132339</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>13.7</v>
@@ -1285,7 +1327,7 @@
         <v>431843.8512132339</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>13.8</v>
@@ -1324,11 +1366,9 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1363,11 +1403,9 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1402,9 +1440,11 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1439,7 +1479,7 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>13.7</v>
@@ -1478,7 +1518,7 @@
         <v>412246.3320132339</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>13.7</v>
@@ -1517,7 +1557,7 @@
         <v>413497.1834132339</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>13.6</v>
@@ -1556,7 +1596,7 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>13.8</v>
@@ -1595,7 +1635,7 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>13.9</v>
@@ -1634,11 +1674,9 @@
         <v>520444.0917132339</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1673,11 +1711,9 @@
         <v>527288.5202132339</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1860,11 +1896,9 @@
         <v>531688.8081054325</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2639,11 +2673,9 @@
         <v>-110868.011986766</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2678,11 +2710,9 @@
         <v>-110868.011986766</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2754,7 +2784,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>13.6</v>
@@ -2793,7 +2823,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>13.6</v>
@@ -2832,7 +2862,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>13.6</v>
@@ -2871,7 +2901,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>13.6</v>
@@ -2910,7 +2940,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>13.9</v>
@@ -2949,7 +2979,7 @@
         <v>-109703.764086766</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>13.9</v>
@@ -2988,7 +3018,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>13.7</v>
@@ -3027,7 +3057,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>13.5</v>
@@ -3066,9 +3096,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3103,7 +3135,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>13.7</v>
@@ -3142,9 +3174,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3179,9 +3213,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3216,7 +3252,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>13.7</v>
@@ -3255,9 +3291,11 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3292,7 +3330,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>13.8</v>
@@ -3331,7 +3369,7 @@
         <v>-131726.137386766</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>13.8</v>
@@ -3370,9 +3408,11 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3407,7 +3447,7 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>13.8</v>
@@ -3446,7 +3486,7 @@
         <v>-134913.068386766</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>13.8</v>
@@ -3485,7 +3525,7 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>13.7</v>
@@ -3524,9 +3564,11 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3561,9 +3603,11 @@
         <v>-122925.604486766</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3598,7 +3642,7 @@
         <v>-122925.604486766</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>13.9</v>
@@ -3637,7 +3681,7 @@
         <v>-171177.143086766</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>13.9</v>
@@ -3676,7 +3720,7 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>13.7</v>
@@ -3715,9 +3759,11 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3752,7 +3798,7 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>13.9</v>
@@ -3791,9 +3837,11 @@
         <v>-185795.809086766</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3828,7 +3876,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>13.8</v>
@@ -3867,7 +3915,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>13.9</v>
@@ -3906,7 +3954,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>13.9</v>
@@ -3945,7 +3993,7 @@
         <v>196426.441313234</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>13.9</v>
@@ -3984,11 +4032,9 @@
         <v>196426.441313234</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4171,11 +4217,9 @@
         <v>158657.458513234</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4210,11 +4254,9 @@
         <v>158657.458513234</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4508,11 +4550,9 @@
         <v>447563.9974132341</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4584,11 +4624,9 @@
         <v>472981.130280367</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4623,11 +4661,9 @@
         <v>472941.180280367</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4662,11 +4698,9 @@
         <v>724195.667080367</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4701,11 +4735,9 @@
         <v>724195.667080367</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4740,11 +4772,9 @@
         <v>724155.717080367</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4779,11 +4809,9 @@
         <v>1067592.362880367</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4855,11 +4883,9 @@
         <v>797514.2603803672</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4894,11 +4920,9 @@
         <v>788327.0669803672</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4933,11 +4957,9 @@
         <v>642654.8237803672</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5009,11 +5031,9 @@
         <v>236370.8382803671</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5122,9 +5142,11 @@
         <v>132523.4999803671</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>14</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5159,7 +5181,7 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>13.9</v>
@@ -5198,9 +5220,11 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5235,7 +5259,7 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>13.8</v>
@@ -5274,7 +5298,7 @@
         <v>23817.78908036714</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>13.8</v>
@@ -5979,9 +6003,11 @@
         <v>291960.1913803671</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -7570,11 +7596,9 @@
         <v>973139.3685071273</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -11087,7 +11111,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11122,7 +11146,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11155,7 +11179,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11188,7 +11212,7 @@
         <v>6141887.657143803</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11221,7 +11245,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11254,7 +11278,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11287,7 +11311,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11320,7 +11344,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11353,7 +11377,7 @@
         <v>6187766.767217487</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11386,7 +11410,7 @@
         <v>6185044.175717487</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11419,7 +11443,7 @@
         <v>6165568.770117487</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11452,7 +11476,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11485,7 +11509,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11518,7 +11542,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11551,7 +11575,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11584,7 +11608,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11617,7 +11641,7 @@
         <v>6124236.681317487</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11650,7 +11674,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11683,7 +11707,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11716,7 +11740,7 @@
         <v>6554197.057663183</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11749,7 +11773,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11782,7 +11806,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11815,7 +11839,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11848,7 +11872,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11881,7 +11905,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11914,7 +11938,7 @@
         <v>6494715.389563182</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11947,7 +11971,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11980,7 +12004,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12178,7 +12202,7 @@
         <v>6424106.254394103</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12211,7 +12235,7 @@
         <v>6422572.272994103</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12277,7 +12301,7 @@
         <v>6450246.120094103</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12310,7 +12334,7 @@
         <v>6320903.456094103</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12343,7 +12367,7 @@
         <v>6327598.126094103</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12376,7 +12400,7 @@
         <v>5458735.483594103</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12409,7 +12433,7 @@
         <v>5458755.483594103</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12442,7 +12466,7 @@
         <v>5120891.998694103</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12475,7 +12499,7 @@
         <v>5558577.335294103</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12508,7 +12532,7 @@
         <v>5525547.335294103</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12541,7 +12565,7 @@
         <v>5289120.836794103</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12574,7 +12598,7 @@
         <v>4887421.708094103</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12607,7 +12631,7 @@
         <v>4887461.708094103</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12640,7 +12664,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12673,7 +12697,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12706,7 +12730,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12739,7 +12763,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12805,7 +12829,7 @@
         <v>4844667.400494103</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12838,7 +12862,7 @@
         <v>4844667.400494103</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12871,7 +12895,7 @@
         <v>4882994.238294103</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13069,7 +13093,7 @@
         <v>5047517.808232035</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13795,7 +13819,7 @@
         <v>5618697.469294106</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13894,7 +13918,7 @@
         <v>5618697.469294106</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14587,7 +14611,7 @@
         <v>5806605.258794106</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14620,7 +14644,7 @@
         <v>5806605.258794106</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14686,7 +14710,7 @@
         <v>5806605.258794106</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14719,7 +14743,7 @@
         <v>5806605.258794106</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14752,7 +14776,7 @@
         <v>5806605.258794106</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14785,7 +14809,7 @@
         <v>5789669.979394105</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14818,7 +14842,7 @@
         <v>5779669.979394105</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14851,7 +14875,7 @@
         <v>6130362.464294105</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14884,7 +14908,7 @@
         <v>6130362.464294105</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14917,7 +14941,7 @@
         <v>6277144.382594105</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14950,7 +14974,7 @@
         <v>6232684.441794105</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14983,7 +15007,7 @@
         <v>6232694.441794105</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15016,7 +15040,7 @@
         <v>6232673.553794105</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15049,7 +15073,7 @@
         <v>5379689.458494104</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15115,7 +15139,7 @@
         <v>5379730.458494104</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15148,7 +15172,7 @@
         <v>5418497.854294105</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15181,7 +15205,7 @@
         <v>5418497.854294105</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15247,7 +15271,7 @@
         <v>5383596.516594104</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15280,7 +15304,7 @@
         <v>5672810.871294104</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16237,7 +16261,7 @@
         <v>5129109.448094103</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16303,7 +16327,7 @@
         <v>5024223.456483365</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16336,7 +16360,7 @@
         <v>4993533.136883365</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16567,7 +16591,7 @@
         <v>5357128.419383364</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16633,7 +16657,7 @@
         <v>5290681.403783364</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17062,7 +17086,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17128,7 +17152,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17359,7 +17383,7 @@
         <v>4979111.790684035</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19174,7 +19198,7 @@
         <v>4760333.689514995</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19207,7 +19231,7 @@
         <v>4760333.689514995</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19240,7 +19264,7 @@
         <v>4760333.689514995</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19273,7 +19297,7 @@
         <v>4491434.546714995</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19306,7 +19330,7 @@
         <v>4491434.546714995</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19339,7 +19363,7 @@
         <v>5105899.607714995</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19372,7 +19396,7 @@
         <v>5105899.607714995</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19438,7 +19462,7 @@
         <v>4813891.439264027</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19702,7 +19726,7 @@
         <v>4463314.535030694</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19735,7 +19759,7 @@
         <v>4463187.065430693</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19768,7 +19792,7 @@
         <v>4463197.065430693</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19801,7 +19825,7 @@
         <v>4464087.065430693</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19834,7 +19858,7 @@
         <v>4464087.065430693</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19867,7 +19891,7 @@
         <v>4464077.065430693</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19900,7 +19924,7 @@
         <v>4471273.132030693</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19933,7 +19957,7 @@
         <v>4471273.132030693</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19966,7 +19990,7 @@
         <v>4405377.331930693</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19999,7 +20023,7 @@
         <v>4212336.178430693</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20032,7 +20056,7 @@
         <v>4212347.178430693</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20065,7 +20089,7 @@
         <v>4214171.195130693</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20098,7 +20122,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20131,7 +20155,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20164,7 +20188,7 @@
         <v>4119970.391730693</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20197,7 +20221,7 @@
         <v>4146029.820230693</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20263,7 +20287,7 @@
         <v>4153575.528930693</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20296,7 +20320,7 @@
         <v>4153535.578930693</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20362,7 +20386,7 @@
         <v>4143820.080230692</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20395,7 +20419,7 @@
         <v>4145464.093530693</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20461,7 +20485,7 @@
         <v>4145424.143530692</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20494,7 +20518,7 @@
         <v>4148770.914030693</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20527,7 +20551,7 @@
         <v>3914896.561330692</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20560,7 +20584,7 @@
         <v>3915098.561330692</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20593,7 +20617,7 @@
         <v>3882684.410130692</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20626,7 +20650,7 @@
         <v>3882684.410130692</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20659,7 +20683,7 @@
         <v>3986854.034830692</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20692,7 +20716,7 @@
         <v>3976756.506830692</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20725,7 +20749,7 @@
         <v>3976756.506830692</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20791,7 +20815,7 @@
         <v>4170955.477230692</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20824,7 +20848,7 @@
         <v>4170955.477230692</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20857,7 +20881,7 @@
         <v>4184495.784830692</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20890,7 +20914,7 @@
         <v>4184495.784830692</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20923,7 +20947,7 @@
         <v>4176863.812130692</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20956,7 +20980,7 @@
         <v>4193855.710930692</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21055,7 +21079,7 @@
         <v>4151749.986530692</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21088,7 +21112,7 @@
         <v>4153450.986530692</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22111,7 +22135,7 @@
         <v>4011722.352960422</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22144,7 +22168,7 @@
         <v>4011733.352960422</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22408,7 +22432,7 @@
         <v>3665301.029060422</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22540,7 +22564,7 @@
         <v>3665333.029060422</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22606,7 +22630,7 @@
         <v>3665333.029060422</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22672,7 +22696,7 @@
         <v>3653144.243460422</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25257,6 +25281,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest DVP.xlsx
+++ b/BackTest/2019-10-21 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,251 +781,221 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28016.29801323385</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28026.29801323385</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28016.29801323385</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50259.2366</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28016.29801323385</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28006.29801323385</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>13.8</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="C18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>28006.29801323385</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28016.29801323385</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>28026.29801323385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28016.29801323385</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>50259.2366</v>
-      </c>
-      <c r="G16" t="n">
-        <v>28016.29801323385</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28006.29801323385</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28006.29801323385</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1059,7 +1029,9 @@
       <c r="I19" t="n">
         <v>13.6</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1098,7 +1070,9 @@
       <c r="I20" t="n">
         <v>13.6</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1137,7 +1111,9 @@
       <c r="I21" t="n">
         <v>13.6</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,7 +1152,9 @@
       <c r="I22" t="n">
         <v>13.6</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1215,7 +1193,9 @@
       <c r="I23" t="n">
         <v>13.8</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1254,7 +1234,9 @@
       <c r="I24" t="n">
         <v>13.6</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1293,7 +1275,9 @@
       <c r="I25" t="n">
         <v>13.7</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1327,12 +1311,12 @@
         <v>431843.8512132339</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1369,7 +1353,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1406,7 +1392,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,12 +1428,12 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>13.7</v>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1479,12 +1467,12 @@
         <v>412256.3320132339</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>13.7</v>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,12 +1506,12 @@
         <v>412246.3320132339</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>13.7</v>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,7 +1550,9 @@
       <c r="I32" t="n">
         <v>13.6</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,12 +1586,12 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1635,12 +1625,12 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,7 +1667,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,7 +1706,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,7 +1745,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,7 +1784,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1823,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,7 +1862,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,7 +1901,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,7 +1940,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,7 +1979,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,7 +2018,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2047,7 +2057,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2121,7 +2135,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,7 +2174,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,7 +2213,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,7 +2252,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2269,7 +2291,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,7 +2330,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,7 +2369,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,7 +2408,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2417,7 +2447,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2454,7 +2486,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,7 +2525,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,7 +2564,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,7 +2603,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,7 +2642,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,7 +2681,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,7 +2720,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,7 +2759,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,7 +2798,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,12 +2834,12 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,12 +2873,12 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,12 +2912,12 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,12 +2951,12 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,12 +2990,12 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,12 +3029,12 @@
         <v>-109703.764086766</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,12 +3068,12 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>13.7</v>
       </c>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,12 +3107,12 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,12 +3146,12 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3135,12 +3185,12 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>13.7</v>
       </c>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,12 +3224,12 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>13.7</v>
       </c>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,12 +3263,12 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>13.7</v>
       </c>
-      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,12 +3302,12 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>13.7</v>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,12 +3341,12 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3330,12 +3380,12 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,12 +3419,12 @@
         <v>-131726.137386766</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,12 +3458,12 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,12 +3497,12 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,12 +3536,12 @@
         <v>-134913.068386766</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,12 +3575,12 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
         <v>13.7</v>
       </c>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,12 +3614,12 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,12 +3653,12 @@
         <v>-122925.604486766</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,12 +3692,12 @@
         <v>-122925.604486766</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,12 +3731,12 @@
         <v>-171177.143086766</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,12 +3770,12 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>13.7</v>
       </c>
-      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,12 +3809,12 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,12 +3848,12 @@
         <v>-168221.715386766</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,12 +3887,12 @@
         <v>-185795.809086766</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3881,7 +3931,9 @@
       <c r="I93" t="n">
         <v>13.8</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,7 +3972,9 @@
       <c r="I94" t="n">
         <v>13.9</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3959,7 +4013,9 @@
       <c r="I95" t="n">
         <v>13.9</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,7 +4054,9 @@
       <c r="I96" t="n">
         <v>13.9</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4035,7 +4093,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,7 +4132,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,7 +4171,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,7 +4210,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4183,7 +4249,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,7 +4288,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4257,7 +4327,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,7 +4366,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,7 +4405,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,7 +4444,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,7 +4483,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4442,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,7 +4561,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,7 +4639,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,7 +4678,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,7 +4717,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4664,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,7 +4795,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,7 +4834,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,17 +4870,19 @@
         <v>724155.717080367</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>13.7</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>1.038795620437956</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4809,15 +4909,11 @@
         <v>1067592.362880367</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4846,15 +4942,11 @@
         <v>797352.0925803671</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4883,15 +4975,11 @@
         <v>797514.2603803672</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +5012,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4961,11 +5045,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +5078,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5035,11 +5111,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +5144,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5177,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5142,17 +5206,11 @@
         <v>132523.4999803671</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5181,17 +5239,11 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5220,17 +5272,11 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5259,17 +5305,11 @@
         <v>23769.60788036714</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5298,17 +5338,11 @@
         <v>23817.78908036714</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +5375,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5378,11 +5408,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5441,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5474,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5489,11 +5507,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5526,11 +5540,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +5573,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5600,11 +5606,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +5639,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5672,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5711,11 +5705,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5748,11 +5738,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +5771,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +5804,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5859,11 +5837,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5870,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5903,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5970,11 +5936,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6003,17 +5965,11 @@
         <v>291960.1913803671</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6046,11 +6002,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6035,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6120,11 +6068,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6157,11 +6101,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +6134,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6167,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6268,11 +6200,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +6233,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6342,11 +6266,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +6299,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +6332,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6453,11 +6365,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6398,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +6431,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6464,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6601,11 +6497,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6530,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +6563,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6596,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6749,11 +6629,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6662,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +6695,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6860,11 +6728,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +6761,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6934,11 +6794,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6971,11 +6827,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7008,11 +6860,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7041,15 +6889,11 @@
         <v>1471912.604407127</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7078,15 +6922,11 @@
         <v>1470004.577707127</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7119,11 +6959,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7152,15 +6988,11 @@
         <v>1550487.111907127</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7189,15 +7021,11 @@
         <v>1100477.111907127</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7226,15 +7054,11 @@
         <v>1078301.569707127</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7267,11 +7091,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7304,11 +7124,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7341,11 +7157,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7374,15 +7186,11 @@
         <v>1050687.429207127</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7411,15 +7219,11 @@
         <v>1033248.618007127</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7448,15 +7252,11 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7485,15 +7285,11 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7522,15 +7318,11 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7559,15 +7351,11 @@
         <v>973139.3685071273</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7600,11 +7388,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +7421,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7674,11 +7454,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7487,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7748,11 +7520,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7785,11 +7553,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7822,11 +7586,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7619,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7892,15 +7648,11 @@
         <v>816724.2771071272</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7929,15 +7681,11 @@
         <v>772940.6159071273</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7966,15 +7714,11 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +7751,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8040,15 +7780,11 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8077,15 +7813,11 @@
         <v>773392.2710071272</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +7850,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8151,15 +7879,11 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8188,15 +7912,11 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8225,15 +7945,11 @@
         <v>1003781.848707127</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8262,15 +7978,11 @@
         <v>990313.1180071273</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8299,15 +8011,11 @@
         <v>994311.8689071273</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8336,15 +8044,11 @@
         <v>1710393.399407127</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8373,15 +8077,11 @@
         <v>1660373.399407127</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8410,15 +8110,11 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8447,15 +8143,11 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8484,15 +8176,11 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8521,15 +8209,11 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8558,15 +8242,11 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8595,15 +8275,11 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8632,15 +8308,11 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8669,15 +8341,11 @@
         <v>1754892.497707127</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8706,15 +8374,11 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8743,15 +8407,11 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8780,15 +8440,11 @@
         <v>1773600.493907127</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8817,15 +8473,11 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8854,15 +8506,11 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8543,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8576,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +8609,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9006,11 +8642,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +8675,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +8708,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +8741,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8774,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +8807,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +8840,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +8873,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +8906,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9339,11 +8939,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9372,15 +8968,11 @@
         <v>2024593.287207128</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9409,15 +9001,11 @@
         <v>1910971.819807128</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9446,15 +9034,11 @@
         <v>1921737.938707127</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9483,15 +9067,11 @@
         <v>2102250.138007128</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9520,15 +9100,11 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9557,15 +9133,11 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9594,15 +9166,11 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9635,11 +9203,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9236,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +9269,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9302,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +9335,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9816,15 +9364,11 @@
         <v>2578285.850307127</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9401,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9434,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +9467,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +9500,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +9533,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +9566,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10079,11 +9599,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10116,11 +9632,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +9665,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +9698,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10227,11 +9731,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10264,11 +9764,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10301,11 +9797,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10338,11 +9830,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +9863,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10412,11 +9896,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10449,11 +9929,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10486,11 +9962,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10523,11 +9995,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10560,11 +10028,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10597,11 +10061,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10634,11 +10094,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10671,11 +10127,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10708,11 +10160,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10745,11 +10193,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10782,11 +10226,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10819,11 +10259,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10856,11 +10292,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10893,11 +10325,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10930,11 +10358,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10967,11 +10391,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11004,11 +10424,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11041,11 +10457,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11078,11 +10490,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11111,16 +10519,14 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
       <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
@@ -11146,7 +10552,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11179,7 +10585,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11212,7 +10618,7 @@
         <v>6141887.657143803</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11245,7 +10651,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11278,7 +10684,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11311,7 +10717,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11344,7 +10750,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11509,7 +10915,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11542,7 +10948,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11575,7 +10981,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11608,7 +11014,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11641,7 +11047,7 @@
         <v>6124236.681317487</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11674,7 +11080,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11707,7 +11113,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11740,7 +11146,7 @@
         <v>6554197.057663183</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11773,7 +11179,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11806,7 +11212,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11839,7 +11245,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11872,7 +11278,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11905,7 +11311,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11938,7 +11344,7 @@
         <v>6494715.389563182</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11971,7 +11377,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12004,7 +11410,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12202,7 +11608,7 @@
         <v>6424106.254394103</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12235,7 +11641,7 @@
         <v>6422572.272994103</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12301,7 +11707,7 @@
         <v>6450246.120094103</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12334,7 +11740,7 @@
         <v>6320903.456094103</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12367,7 +11773,7 @@
         <v>6327598.126094103</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12400,7 +11806,7 @@
         <v>5458735.483594103</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12433,7 +11839,7 @@
         <v>5458755.483594103</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12466,7 +11872,7 @@
         <v>5120891.998694103</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12499,7 +11905,7 @@
         <v>5558577.335294103</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12532,7 +11938,7 @@
         <v>5525547.335294103</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12565,7 +11971,7 @@
         <v>5289120.836794103</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12598,7 +12004,7 @@
         <v>4887421.708094103</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12631,7 +12037,7 @@
         <v>4887461.708094103</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12664,7 +12070,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12697,7 +12103,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12730,7 +12136,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12763,7 +12169,7 @@
         <v>4809498.977994103</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12829,7 +12235,7 @@
         <v>4844667.400494103</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12862,7 +12268,7 @@
         <v>4844667.400494103</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12895,7 +12301,7 @@
         <v>4882994.238294103</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13093,7 +12499,7 @@
         <v>5047517.808232035</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -14908,7 +14314,7 @@
         <v>6130362.464294105</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14941,7 +14347,7 @@
         <v>6277144.382594105</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16789,7 +16195,7 @@
         <v>5290681.403783364</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16855,7 +16261,7 @@
         <v>5291036.538883364</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16888,7 +16294,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16921,7 +16327,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16954,7 +16360,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16987,7 +16393,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17020,7 +16426,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17053,7 +16459,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17086,7 +16492,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17185,7 +16591,7 @@
         <v>5265872.971684035</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17383,7 +16789,7 @@
         <v>4979111.790684035</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19726,7 +19132,7 @@
         <v>4463314.535030694</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19759,7 +19165,7 @@
         <v>4463187.065430693</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19792,7 +19198,7 @@
         <v>4463197.065430693</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19825,7 +19231,7 @@
         <v>4464087.065430693</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19858,7 +19264,7 @@
         <v>4464087.065430693</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19891,7 +19297,7 @@
         <v>4464077.065430693</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19924,7 +19330,7 @@
         <v>4471273.132030693</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19957,7 +19363,7 @@
         <v>4471273.132030693</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19990,7 +19396,7 @@
         <v>4405377.331930693</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20023,7 +19429,7 @@
         <v>4212336.178430693</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20056,7 +19462,7 @@
         <v>4212347.178430693</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20089,7 +19495,7 @@
         <v>4214171.195130693</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20155,7 +19561,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20188,7 +19594,7 @@
         <v>4119970.391730693</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20221,7 +19627,7 @@
         <v>4146029.820230693</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20287,7 +19693,7 @@
         <v>4153575.528930693</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20320,7 +19726,7 @@
         <v>4153535.578930693</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20386,7 +19792,7 @@
         <v>4143820.080230692</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20419,7 +19825,7 @@
         <v>4145464.093530693</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20485,7 +19891,7 @@
         <v>4145424.143530692</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20518,7 +19924,7 @@
         <v>4148770.914030693</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20551,7 +19957,7 @@
         <v>3914896.561330692</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20584,7 +19990,7 @@
         <v>3915098.561330692</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20617,7 +20023,7 @@
         <v>3882684.410130692</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20650,7 +20056,7 @@
         <v>3882684.410130692</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20683,7 +20089,7 @@
         <v>3986854.034830692</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20716,7 +20122,7 @@
         <v>3976756.506830692</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20749,7 +20155,7 @@
         <v>3976756.506830692</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20848,7 +20254,7 @@
         <v>4170955.477230692</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20881,7 +20287,7 @@
         <v>4184495.784830692</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20914,7 +20320,7 @@
         <v>4184495.784830692</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -24049,7 +23455,7 @@
         <v>2945889.257560422</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24577,7 +23983,7 @@
         <v>2964899.290152203</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25281,6 +24687,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest DVP.xlsx
+++ b/BackTest/2019-10-21 BackTest DVP.xlsx
@@ -946,14 +946,10 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,19 +1045,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1106,19 +1078,11 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,19 +1111,11 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1188,19 +1144,11 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1229,19 +1177,11 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1278,11 +1218,7 @@
       <c r="J25" t="n">
         <v>13.7</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1319,7 +1255,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1358,7 +1294,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1586,9 +1522,11 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J33" t="n">
         <v>13.7</v>
       </c>
@@ -2912,9 +2850,11 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J67" t="n">
         <v>13.7</v>
       </c>
@@ -2951,9 +2891,11 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J68" t="n">
         <v>13.7</v>
       </c>
@@ -2990,9 +2932,11 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J69" t="n">
         <v>13.7</v>
       </c>
@@ -3029,9 +2973,11 @@
         <v>-109703.764086766</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J70" t="n">
         <v>13.7</v>
       </c>
@@ -3068,9 +3014,11 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J71" t="n">
         <v>13.7</v>
       </c>
@@ -3107,9 +3055,11 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J72" t="n">
         <v>13.7</v>
       </c>
@@ -3146,9 +3096,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J73" t="n">
         <v>13.7</v>
       </c>
@@ -3185,9 +3137,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J74" t="n">
         <v>13.7</v>
       </c>
@@ -3224,9 +3178,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J75" t="n">
         <v>13.7</v>
       </c>
@@ -3263,9 +3219,11 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J76" t="n">
         <v>13.7</v>
       </c>
@@ -3302,9 +3260,11 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J77" t="n">
         <v>13.7</v>
       </c>
@@ -3341,9 +3301,11 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J78" t="n">
         <v>13.7</v>
       </c>
@@ -3458,9 +3420,11 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J81" t="n">
         <v>13.7</v>
       </c>
@@ -3497,9 +3461,11 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J82" t="n">
         <v>13.7</v>
       </c>
@@ -3536,9 +3502,11 @@
         <v>-134913.068386766</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J83" t="n">
         <v>13.7</v>
       </c>
@@ -3575,9 +3543,11 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J84" t="n">
         <v>13.7</v>
       </c>
@@ -3614,9 +3584,11 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J85" t="n">
         <v>13.7</v>
       </c>
@@ -3926,11 +3898,9 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>13.7</v>
       </c>
@@ -3967,11 +3937,9 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>13.7</v>
       </c>
@@ -4008,11 +3976,9 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>13.7</v>
       </c>
@@ -4049,11 +4015,9 @@
         <v>196426.441313234</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>13.7</v>
       </c>
@@ -4870,7 +4834,7 @@
         <v>724155.717080367</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
@@ -4878,11 +4842,11 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.038795620437956</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4909,11 +4873,17 @@
         <v>1067592.362880367</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +4912,17 @@
         <v>797352.0925803671</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4951,17 @@
         <v>797514.2603803672</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +4993,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5071,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5305,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5383,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5461,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +5539,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +5578,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5656,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5695,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5734,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +5773,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +5812,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +5851,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +5890,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +5929,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +5968,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6007,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6046,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6085,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6124,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6163,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6202,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6241,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6319,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6397,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6436,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6475,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +6514,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +6553,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +6592,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +6631,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +6670,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +6709,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +6748,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +6787,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +6826,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +6865,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +6904,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +6943,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7021,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7099,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7138,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7177,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6889,11 +7213,17 @@
         <v>1471912.604407127</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +7252,17 @@
         <v>1470004.577707127</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +7330,17 @@
         <v>1550487.111907127</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +7369,17 @@
         <v>1100477.111907127</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +7408,17 @@
         <v>1078301.569707127</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7450,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +7489,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +7528,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7186,11 +7564,17 @@
         <v>1050687.429207127</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7219,11 +7603,17 @@
         <v>1033248.618007127</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +7642,17 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7285,11 +7681,17 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +7720,17 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +7759,17 @@
         <v>973139.3685071273</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7801,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +7840,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +7879,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +7918,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +7957,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +7996,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8035,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8074,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7648,11 +8110,17 @@
         <v>816724.2771071272</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +8149,17 @@
         <v>772940.6159071273</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7714,11 +8188,17 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8230,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +8266,17 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +8305,17 @@
         <v>773392.2710071272</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8347,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +8383,17 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +8422,17 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +8461,17 @@
         <v>1003781.848707127</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +8500,17 @@
         <v>990313.1180071273</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +8539,17 @@
         <v>994311.8689071273</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +8578,17 @@
         <v>1710393.399407127</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +8617,17 @@
         <v>1660373.399407127</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +8656,17 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +8695,17 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +8734,17 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +8773,17 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8812,17 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8851,17 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8890,17 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8929,17 @@
         <v>1754892.497707127</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8968,17 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +9007,17 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +9046,17 @@
         <v>1773600.493907127</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +9085,17 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +9124,17 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +9166,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +9205,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +9244,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +9283,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9322,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9361,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9400,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9439,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +9478,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9517,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +9556,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +9595,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +9634,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +9670,17 @@
         <v>2024593.287207128</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9001,11 +9709,17 @@
         <v>1910971.819807128</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +9748,17 @@
         <v>1921737.938707127</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +9787,17 @@
         <v>2102250.138007128</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9100,11 +9826,17 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +9865,17 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +9904,17 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +9946,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +9985,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +10024,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +10063,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +10102,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +10138,17 @@
         <v>2578285.850307127</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +10180,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +10219,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +10258,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +10297,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10336,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10375,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10414,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10453,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10492,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +10531,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +10570,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10609,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10648,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10687,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10726,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10765,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10804,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10843,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10882,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10921,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10960,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10999,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +11038,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +11077,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +11116,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +11155,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +11194,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +11233,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +11272,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10354,15 +11308,23 @@
         <v>6965545.635343804</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>1.140985401459854</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1.036764705882353</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10387,7 +11349,7 @@
         <v>6960905.809143804</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10420,7 +11382,7 @@
         <v>6946401.136243804</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10453,7 +11415,7 @@
         <v>7110737.051743804</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10486,7 +11448,7 @@
         <v>6426211.247743804</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10519,7 +11481,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10552,7 +11514,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10585,7 +11547,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10618,7 +11580,7 @@
         <v>6141887.657143803</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10651,7 +11613,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10684,7 +11646,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10717,7 +11679,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10816,7 +11778,7 @@
         <v>6185044.175717487</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10849,7 +11811,7 @@
         <v>6165568.770117487</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10882,7 +11844,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11179,7 +12141,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11212,7 +12174,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -16195,7 +17157,7 @@
         <v>5290681.403783364</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16261,7 +17223,7 @@
         <v>5291036.538883364</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16294,7 +17256,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16327,7 +17289,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16360,7 +17322,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16393,7 +17355,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16426,7 +17388,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16459,7 +17421,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16558,7 +17520,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16591,7 +17553,7 @@
         <v>5265872.971684035</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -19528,7 +20490,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19561,7 +20523,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19594,7 +20556,7 @@
         <v>4119970.391730693</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19627,7 +20589,7 @@
         <v>4146029.820230693</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -23455,7 +24417,7 @@
         <v>2945889.257560422</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23983,7 +24945,7 @@
         <v>2964899.290152203</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
